--- a/excel/finished/焦化45/CK45-CDQ操作运行报表B（日）.xlsx
+++ b/excel/finished/焦化45/CK45-CDQ操作运行报表B（日）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
           </rPr>
           <t xml:space="preserve">
 何茂成:
+何茂成:
 输入控制上限，标识超限后颜色设置</t>
         </r>
       </text>
@@ -63,6 +64,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+何茂成:
 何茂成:输入控制下限，标识超限后颜色设置</t>
         </r>
       </text>
@@ -85,6 +87,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+何茂成:
 何茂成:输入控制公式ControlColorPara：参数1:控制区域，参数2：上限值单元格，参数3：下限值单元格，参数4：true为&gt;=或=&lt;比较，false为&gt;或&lt;比较</t>
         </r>
       </text>
@@ -94,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <r>
       <rPr>
@@ -104,7 +107,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>＿ 140＿</t>
+      <t>＿ 95＿</t>
     </r>
     <r>
       <rPr>
@@ -349,139 +352,36 @@
     <t>管控范围</t>
   </si>
   <si>
-    <t>≤5.6</t>
-  </si>
-  <si>
-    <t>≤85</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≤1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≤1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≤1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>495</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≤9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>1.5~5</t>
+    <t>≤8</t>
   </si>
   <si>
     <t>≤95</t>
   </si>
   <si>
+    <t>≤105</t>
+  </si>
+  <si>
+    <t>≤2000</t>
+  </si>
+  <si>
+    <t>≤201</t>
+  </si>
+  <si>
     <t>≤75</t>
   </si>
   <si>
+    <t>≤300</t>
+  </si>
+  <si>
+    <t>6~8.2</t>
+  </si>
+  <si>
     <t>≤200</t>
   </si>
   <si>
-    <t>6.1~6.4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≤5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
     <t>≤100</t>
   </si>
   <si>
-    <t>≤8</t>
-  </si>
-  <si>
     <t>≤3</t>
   </si>
   <si>
@@ -554,10 +454,10 @@
     <t>CK45_L1R_CDQ_TISA10207B_U_1m_avg</t>
   </si>
   <si>
-    <t>CK45_L1R_CDQ_1#QZB_DL_U_1m_avg</t>
-  </si>
-  <si>
-    <t>CK45_L1R_CDQ_2#QZB_DL_U_1m_avg</t>
+    <t>CK45_L1R_CDQ_1_QZB_DL_U_1m_avg</t>
+  </si>
+  <si>
+    <t>CK45_L1R_CDQ_2_QZB_DL_U_1m_avg</t>
   </si>
   <si>
     <t>CK45_L1R_CDQ_PISA10204A_U_1m_avg</t>
@@ -780,13 +680,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * &quot;-&quot;#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,39 +794,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="20"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -938,17 +854,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color indexed="65"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,11 +894,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -980,59 +927,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1082,192 +977,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1549,19 +1444,6 @@
         <color theme="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -1632,17 +1514,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1662,26 +1553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1697,17 +1568,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,162 +1603,164 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="30">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="31">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="30">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="32">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="35">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1960,12 +1842,21 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="11" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1975,6 +1866,9 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2014,40 +1908,34 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="22" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="22" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="14" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,7 +1950,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2071,7 +1959,7 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="28" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2130,7 +2018,18 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="1"/>
@@ -2139,7 +2038,7 @@
         <color indexed="2"/>
       </font>
       <fill>
-        <patternFill patternType="solid"/>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
@@ -2150,7 +2049,7 @@
         <color rgb="FFFFC000"/>
       </font>
       <fill>
-        <patternFill patternType="solid"/>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -2375,15 +2274,17 @@
   <sheetPr/>
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.1" style="10" customWidth="1"/>
     <col min="2" max="2" width="22.8" style="10" customWidth="1"/>
-    <col min="3" max="44" width="8.1" style="10" customWidth="1"/>
+    <col min="3" max="24" width="8.1" style="10" customWidth="1"/>
+    <col min="25" max="28" width="8.1" style="10" hidden="1" customWidth="1"/>
+    <col min="29" max="44" width="8.1" style="10" customWidth="1"/>
     <col min="45" max="16384" width="8.1" style="1"/>
   </cols>
   <sheetData>
@@ -2444,33 +2345,33 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
       <c r="AP2" s="13"/>
       <c r="AQ2" s="13"/>
       <c r="AR2" s="13"/>
@@ -2533,7 +2434,7 @@
       <c r="AO3" s="54"/>
       <c r="AP3" s="54"/>
       <c r="AQ3" s="54"/>
-      <c r="AR3" s="58"/>
+      <c r="AR3" s="60"/>
     </row>
     <row r="4" ht="29.25" customHeight="1" spans="1:44">
       <c r="A4" s="15"/>
@@ -2582,10 +2483,10 @@
         <v>17</v>
       </c>
       <c r="T4" s="19"/>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="44"/>
+      <c r="V4" s="48"/>
       <c r="W4" s="19" t="s">
         <v>17</v>
       </c>
@@ -2643,7 +2544,7 @@
       <c r="AQ4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AR4" s="59" t="s">
+      <c r="AR4" s="61" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2668,8 +2569,8 @@
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="46"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="50"/>
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
@@ -2691,7 +2592,7 @@
       <c r="AO5" s="19"/>
       <c r="AP5" s="19"/>
       <c r="AQ5" s="19"/>
-      <c r="AR5" s="59"/>
+      <c r="AR5" s="61"/>
     </row>
     <row r="6" s="8" customFormat="1" ht="32.55" customHeight="1" spans="1:44">
       <c r="A6" s="15"/>
@@ -2771,9 +2672,9 @@
       <c r="AO6" s="19"/>
       <c r="AP6" s="19"/>
       <c r="AQ6" s="19"/>
-      <c r="AR6" s="59"/>
+      <c r="AR6" s="61"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="44.55" hidden="1" customHeight="1" spans="1:44">
+    <row r="7" s="9" customFormat="1" ht="44.55" customHeight="1" spans="1:44">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
         <v>45</v>
@@ -2800,38 +2701,38 @@
         <v>48</v>
       </c>
       <c r="J7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="22" t="s">
+      <c r="M7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="N7" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R7" s="22"/>
       <c r="S7" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T7" s="22"/>
       <c r="U7" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V7" s="22"/>
       <c r="W7" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X7" s="22"/>
       <c r="Y7" s="22"/>
@@ -2839,79 +2740,79 @@
       <c r="AA7" s="22"/>
       <c r="AB7" s="22"/>
       <c r="AC7" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AD7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH7" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="AE7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF7" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH7" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="AI7" s="22"/>
       <c r="AJ7" s="22"/>
       <c r="AK7" s="22"/>
       <c r="AL7" s="22"/>
       <c r="AM7" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AN7" s="22"/>
       <c r="AO7" s="21"/>
       <c r="AP7" s="22"/>
       <c r="AQ7" s="22"/>
-      <c r="AR7" s="60"/>
+      <c r="AR7" s="62"/>
     </row>
     <row r="8" s="9" customFormat="1" ht="44.55" hidden="1" customHeight="1" spans="1:44">
       <c r="A8" s="15"/>
       <c r="B8" s="23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="24">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="24">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="24">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F8" s="24">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G8" s="24">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H8" s="24">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="I8" s="24">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="J8" s="24">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K8" s="24">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="L8" s="24">
-        <v>1495</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="24">
+        <v>201</v>
+      </c>
+      <c r="N8" s="24">
         <v>95</v>
       </c>
-      <c r="N8" s="24">
-        <v>5</v>
-      </c>
       <c r="O8" s="24">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="P8" s="24">
         <v>95</v>
@@ -2923,22 +2824,22 @@
         <v>75</v>
       </c>
       <c r="S8" s="24">
+        <v>300</v>
+      </c>
+      <c r="T8" s="24">
+        <v>300</v>
+      </c>
+      <c r="U8" s="24">
+        <v>8.2</v>
+      </c>
+      <c r="V8" s="24">
+        <v>8.2</v>
+      </c>
+      <c r="W8" s="24">
         <v>200</v>
       </c>
-      <c r="T8" s="24">
+      <c r="X8" s="24">
         <v>200</v>
-      </c>
-      <c r="U8" s="24">
-        <v>6.4</v>
-      </c>
-      <c r="V8" s="24">
-        <v>6.4</v>
-      </c>
-      <c r="W8" s="24">
-        <v>50</v>
-      </c>
-      <c r="X8" s="24">
-        <v>50</v>
       </c>
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
@@ -2966,75 +2867,125 @@
       <c r="AJ8" s="24"/>
       <c r="AK8" s="24"/>
       <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
+      <c r="AM8" s="24">
+        <v>999999</v>
+      </c>
       <c r="AN8" s="24"/>
       <c r="AO8" s="24"/>
       <c r="AP8" s="24"/>
       <c r="AQ8" s="24"/>
-      <c r="AR8" s="61"/>
+      <c r="AR8" s="63"/>
     </row>
     <row r="9" s="9" customFormat="1" ht="44.55" hidden="1" customHeight="1" spans="1:44">
       <c r="A9" s="15"/>
       <c r="B9" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="C9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="D9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="E9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="F9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="G9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="H9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="I9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="J9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="K9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="L9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="M9" s="25">
+        <v>-9999</v>
+      </c>
       <c r="N9" s="25">
-        <v>1.5</v>
+        <v>-9999</v>
       </c>
       <c r="O9" s="25">
-        <v>1.5</v>
-      </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
+        <v>-9999</v>
+      </c>
+      <c r="P9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="R9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="S9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="T9" s="25">
+        <v>-9999</v>
+      </c>
       <c r="U9" s="25">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="V9" s="25">
-        <v>6.1</v>
-      </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="W9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="X9" s="25">
+        <v>-9999</v>
+      </c>
       <c r="Y9" s="25"/>
       <c r="Z9" s="25"/>
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
+      <c r="AC9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>-9999</v>
+      </c>
+      <c r="AH9" s="25">
+        <v>-9999</v>
+      </c>
       <c r="AI9" s="25"/>
       <c r="AJ9" s="25"/>
       <c r="AK9" s="25"/>
       <c r="AL9" s="25"/>
-      <c r="AM9" s="25">
+      <c r="AM9" s="58">
         <v>0.4</v>
       </c>
       <c r="AN9" s="25"/>
       <c r="AO9" s="25"/>
       <c r="AP9" s="25"/>
       <c r="AQ9" s="25"/>
-      <c r="AR9" s="62"/>
+      <c r="AR9" s="64"/>
     </row>
     <row r="10" s="9" customFormat="1" ht="44.55" hidden="1" customHeight="1" spans="1:44">
       <c r="A10" s="15"/>
       <c r="B10" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="21" t="e">
         <f ca="1">ControlColorPara(C12:C39,C8,C9,FALSE)</f>
@@ -3197,7 +3148,7 @@
         <f ca="1">ControlColorPara(AQ12:AQ39,AQ8,AQ9,FALSE)</f>
         <v>#NAME?</v>
       </c>
-      <c r="AR10" s="60" t="e">
+      <c r="AR10" s="62" t="e">
         <f ca="1">ControlColorPara(AR12:AR39,AR8,AR9,FALSE)</f>
         <v>#NAME?</v>
       </c>
@@ -3205,125 +3156,125 @@
     <row r="11" ht="66" hidden="1" customHeight="1" spans="1:44">
       <c r="A11" s="15"/>
       <c r="B11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AI11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AI11" s="4" t="s">
+      <c r="AM11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AN11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AO11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AP11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AN11" s="3" t="s">
+      <c r="AR11" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="AO11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR11" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" ht="25.05" customHeight="1" spans="2:44">
@@ -3338,39 +3289,39 @@
         <f>IF(_CDQ_day_hour!B2="","",_CDQ_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="29" t="str">
         <f>IF(_CDQ_day_hour!C2="","",_CDQ_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F12" s="28" t="str">
+      <c r="F12" s="29" t="str">
         <f>IF(_CDQ_day_hour!D2="","",_CDQ_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G12" s="28" t="str">
+      <c r="G12" s="29" t="str">
         <f>IF(_CDQ_day_hour!E2="","",_CDQ_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H12" s="28" t="str">
+      <c r="H12" s="29" t="str">
         <f>IF(_CDQ_day_hour!F2="","",_CDQ_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I12" s="28" t="str">
+      <c r="I12" s="29" t="str">
         <f>IF(_CDQ_day_hour!G2="","",_CDQ_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J12" s="28" t="str">
+      <c r="J12" s="29" t="str">
         <f>IF(_CDQ_day_hour!H2="","",_CDQ_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K12" s="28" t="str">
+      <c r="K12" s="29" t="str">
         <f>IF(_CDQ_day_hour!I2="","",_CDQ_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L12" s="28" t="str">
+      <c r="L12" s="29" t="str">
         <f>IF(_CDQ_day_hour!J2="","",_CDQ_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M12" s="28" t="str">
+      <c r="M12" s="29" t="str">
         <f>IF(_CDQ_day_hour!K2="","",_CDQ_day_hour!K2)</f>
         <v/>
       </c>
@@ -3382,23 +3333,23 @@
         <f>IF(_CDQ_day_hour!M2="","",_CDQ_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P12" s="28" t="str">
+      <c r="P12" s="29" t="str">
         <f>IF(_CDQ_day_hour!N2="","",_CDQ_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q12" s="28" t="str">
+      <c r="Q12" s="29" t="str">
         <f>IF(_CDQ_day_hour!O2="","",_CDQ_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R12" s="28" t="str">
+      <c r="R12" s="29" t="str">
         <f>IF(_CDQ_day_hour!P2="","",_CDQ_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S12" s="28" t="str">
+      <c r="S12" s="29" t="str">
         <f>IF(_CDQ_day_hour!Q2="","",_CDQ_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T12" s="28" t="str">
+      <c r="T12" s="29" t="str">
         <f>IF(_CDQ_day_hour!R2="","",_CDQ_day_hour!R2)</f>
         <v/>
       </c>
@@ -3410,7 +3361,7 @@
         <f>IF(_CDQ_day_hour!T2="","",_CDQ_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="W12" s="47" t="str">
+      <c r="W12" s="28" t="str">
         <f>IF(_CDQ_day_hour!U2="","",_CDQ_day_hour!U2)</f>
         <v/>
       </c>
@@ -3474,7 +3425,7 @@
         <f>IF(_CDQ_day_hour!AJ2="","",_CDQ_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AM12" s="28" t="str">
+      <c r="AM12" s="29" t="str">
         <f>IF(_CDQ_day_hour!AK2="","",_CDQ_day_hour!AK2)</f>
         <v/>
       </c>
@@ -3486,7 +3437,7 @@
         <f>IF(_CDQ_day_hour!AM2="","",_CDQ_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AP12" s="28" t="str">
+      <c r="AP12" s="29" t="str">
         <f>IF(_CDQ_day_hour!AN2="","",_CDQ_day_hour!AN2)</f>
         <v/>
       </c>
@@ -3494,7 +3445,7 @@
         <f>IF(_CDQ_day_hour!AO2="","",_CDQ_day_hour!AO2)</f>
         <v/>
       </c>
-      <c r="AR12" s="63" t="str">
+      <c r="AR12" s="65" t="str">
         <f>IF(_CDQ_day_hour!AP2="","",_CDQ_day_hour!AP2)</f>
         <v/>
       </c>
@@ -3503,171 +3454,171 @@
       <c r="B13" s="27">
         <v>0.0416666666666667</v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="30" t="str">
         <f>IF(_CDQ_day_hour!A3="","",_CDQ_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="30" t="str">
         <f>IF(_CDQ_day_hour!B3="","",_CDQ_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="31" t="str">
         <f>IF(_CDQ_day_hour!C3="","",_CDQ_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="31" t="str">
         <f>IF(_CDQ_day_hour!D3="","",_CDQ_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="31" t="str">
         <f>IF(_CDQ_day_hour!E3="","",_CDQ_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H13" s="29" t="str">
+      <c r="H13" s="31" t="str">
         <f>IF(_CDQ_day_hour!F3="","",_CDQ_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I13" s="29" t="str">
+      <c r="I13" s="31" t="str">
         <f>IF(_CDQ_day_hour!G3="","",_CDQ_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J13" s="29" t="str">
+      <c r="J13" s="31" t="str">
         <f>IF(_CDQ_day_hour!H3="","",_CDQ_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K13" s="29" t="str">
+      <c r="K13" s="31" t="str">
         <f>IF(_CDQ_day_hour!I3="","",_CDQ_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L13" s="29" t="str">
+      <c r="L13" s="31" t="str">
         <f>IF(_CDQ_day_hour!J3="","",_CDQ_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M13" s="29" t="str">
+      <c r="M13" s="31" t="str">
         <f>IF(_CDQ_day_hour!K3="","",_CDQ_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N13" s="29" t="str">
+      <c r="N13" s="30" t="str">
         <f>IF(_CDQ_day_hour!L3="","",_CDQ_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O13" s="29" t="str">
+      <c r="O13" s="30" t="str">
         <f>IF(_CDQ_day_hour!M3="","",_CDQ_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P13" s="29" t="str">
+      <c r="P13" s="31" t="str">
         <f>IF(_CDQ_day_hour!N3="","",_CDQ_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q13" s="29" t="str">
+      <c r="Q13" s="31" t="str">
         <f>IF(_CDQ_day_hour!O3="","",_CDQ_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R13" s="29" t="str">
+      <c r="R13" s="31" t="str">
         <f>IF(_CDQ_day_hour!P3="","",_CDQ_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S13" s="29" t="str">
+      <c r="S13" s="31" t="str">
         <f>IF(_CDQ_day_hour!Q3="","",_CDQ_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T13" s="29" t="str">
+      <c r="T13" s="31" t="str">
         <f>IF(_CDQ_day_hour!R3="","",_CDQ_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U13" s="29" t="str">
+      <c r="U13" s="30" t="str">
         <f>IF(_CDQ_day_hour!S3="","",_CDQ_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="V13" s="28" t="str">
+      <c r="V13" s="30" t="str">
         <f>IF(_CDQ_day_hour!T3="","",_CDQ_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="W13" s="48" t="str">
+      <c r="W13" s="30" t="str">
         <f>IF(_CDQ_day_hour!U3="","",_CDQ_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="X13" s="29" t="str">
+      <c r="X13" s="30" t="str">
         <f>IF(_CDQ_day_hour!V3="","",_CDQ_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="Y13" s="29" t="str">
+      <c r="Y13" s="30" t="str">
         <f>IF(_CDQ_day_hour!W3="","",_CDQ_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Z13" s="29" t="str">
+      <c r="Z13" s="30" t="str">
         <f>IF(_CDQ_day_hour!X3="","",_CDQ_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="AA13" s="29" t="str">
+      <c r="AA13" s="30" t="str">
         <f>IF(_CDQ_day_hour!Y3="","",_CDQ_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AB13" s="29" t="str">
+      <c r="AB13" s="30" t="str">
         <f>IF(_CDQ_day_hour!Z3="","",_CDQ_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AC13" s="29" t="str">
+      <c r="AC13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AA3="","",_CDQ_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AD13" s="29" t="str">
+      <c r="AD13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AB3="","",_CDQ_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AE13" s="29" t="str">
+      <c r="AE13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AC3="","",_CDQ_day_hour!AC3)</f>
         <v/>
       </c>
-      <c r="AF13" s="29" t="str">
+      <c r="AF13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AD3="","",_CDQ_day_hour!AD3)</f>
         <v/>
       </c>
-      <c r="AG13" s="29" t="str">
+      <c r="AG13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AE3="","",_CDQ_day_hour!AE3)</f>
         <v/>
       </c>
-      <c r="AH13" s="29" t="str">
+      <c r="AH13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AF3="","",_CDQ_day_hour!AF3)</f>
         <v/>
       </c>
-      <c r="AI13" s="29" t="str">
+      <c r="AI13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AG3="","",_CDQ_day_hour!AG3)</f>
         <v/>
       </c>
-      <c r="AJ13" s="29" t="str">
+      <c r="AJ13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AH3="","",_CDQ_day_hour!AH3)</f>
         <v/>
       </c>
-      <c r="AK13" s="29" t="str">
+      <c r="AK13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AI3="","",_CDQ_day_hour!AI3)</f>
         <v/>
       </c>
-      <c r="AL13" s="29" t="str">
+      <c r="AL13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AJ3="","",_CDQ_day_hour!AJ3)</f>
         <v/>
       </c>
-      <c r="AM13" s="29" t="str">
+      <c r="AM13" s="31" t="str">
         <f>IF(_CDQ_day_hour!AK3="","",_CDQ_day_hour!AK3)</f>
         <v/>
       </c>
-      <c r="AN13" s="29" t="str">
+      <c r="AN13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AL3="","",_CDQ_day_hour!AL3)</f>
         <v/>
       </c>
-      <c r="AO13" s="29" t="str">
+      <c r="AO13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AM3="","",_CDQ_day_hour!AM3)</f>
         <v/>
       </c>
-      <c r="AP13" s="29" t="str">
+      <c r="AP13" s="31" t="str">
         <f>IF(_CDQ_day_hour!AN3="","",_CDQ_day_hour!AN3)</f>
         <v/>
       </c>
-      <c r="AQ13" s="29" t="str">
+      <c r="AQ13" s="30" t="str">
         <f>IF(_CDQ_day_hour!AO3="","",_CDQ_day_hour!AO3)</f>
         <v/>
       </c>
-      <c r="AR13" s="64" t="str">
+      <c r="AR13" s="66" t="str">
         <f>IF(_CDQ_day_hour!AP3="","",_CDQ_day_hour!AP3)</f>
         <v/>
       </c>
@@ -3676,171 +3627,171 @@
       <c r="B14" s="27">
         <v>0.0833333333333333</v>
       </c>
-      <c r="C14" s="30" t="str">
+      <c r="C14" s="32" t="str">
         <f>IF(_CDQ_day_hour!A4="","",_CDQ_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="32" t="str">
         <f>IF(_CDQ_day_hour!B4="","",_CDQ_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="33" t="str">
         <f>IF(_CDQ_day_hour!C4="","",_CDQ_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F14" s="30" t="str">
+      <c r="F14" s="33" t="str">
         <f>IF(_CDQ_day_hour!D4="","",_CDQ_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="33" t="str">
         <f>IF(_CDQ_day_hour!E4="","",_CDQ_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H14" s="30" t="str">
+      <c r="H14" s="33" t="str">
         <f>IF(_CDQ_day_hour!F4="","",_CDQ_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I14" s="30" t="str">
+      <c r="I14" s="33" t="str">
         <f>IF(_CDQ_day_hour!G4="","",_CDQ_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J14" s="30" t="str">
+      <c r="J14" s="33" t="str">
         <f>IF(_CDQ_day_hour!H4="","",_CDQ_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K14" s="30" t="str">
+      <c r="K14" s="33" t="str">
         <f>IF(_CDQ_day_hour!I4="","",_CDQ_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L14" s="30" t="str">
+      <c r="L14" s="33" t="str">
         <f>IF(_CDQ_day_hour!J4="","",_CDQ_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M14" s="30" t="str">
+      <c r="M14" s="33" t="str">
         <f>IF(_CDQ_day_hour!K4="","",_CDQ_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N14" s="30" t="str">
+      <c r="N14" s="32" t="str">
         <f>IF(_CDQ_day_hour!L4="","",_CDQ_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O14" s="30" t="str">
+      <c r="O14" s="32" t="str">
         <f>IF(_CDQ_day_hour!M4="","",_CDQ_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P14" s="30" t="str">
+      <c r="P14" s="33" t="str">
         <f>IF(_CDQ_day_hour!N4="","",_CDQ_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q14" s="30" t="str">
+      <c r="Q14" s="33" t="str">
         <f>IF(_CDQ_day_hour!O4="","",_CDQ_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R14" s="30" t="str">
+      <c r="R14" s="33" t="str">
         <f>IF(_CDQ_day_hour!P4="","",_CDQ_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S14" s="30" t="str">
+      <c r="S14" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q4="","",_CDQ_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T14" s="30" t="str">
+      <c r="T14" s="33" t="str">
         <f>IF(_CDQ_day_hour!R4="","",_CDQ_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U14" s="30" t="str">
+      <c r="U14" s="32" t="str">
         <f>IF(_CDQ_day_hour!S4="","",_CDQ_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="V14" s="28" t="str">
+      <c r="V14" s="32" t="str">
         <f>IF(_CDQ_day_hour!T4="","",_CDQ_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="W14" s="49" t="str">
+      <c r="W14" s="32" t="str">
         <f>IF(_CDQ_day_hour!U4="","",_CDQ_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="X14" s="30" t="str">
+      <c r="X14" s="32" t="str">
         <f>IF(_CDQ_day_hour!V4="","",_CDQ_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="Y14" s="30" t="str">
+      <c r="Y14" s="32" t="str">
         <f>IF(_CDQ_day_hour!W4="","",_CDQ_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Z14" s="30" t="str">
+      <c r="Z14" s="32" t="str">
         <f>IF(_CDQ_day_hour!X4="","",_CDQ_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="AA14" s="30" t="str">
+      <c r="AA14" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y4="","",_CDQ_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AB14" s="30" t="str">
+      <c r="AB14" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z4="","",_CDQ_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AC14" s="30" t="str">
+      <c r="AC14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA4="","",_CDQ_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AD14" s="30" t="str">
+      <c r="AD14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB4="","",_CDQ_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AE14" s="30" t="str">
+      <c r="AE14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC4="","",_CDQ_day_hour!AC4)</f>
         <v/>
       </c>
-      <c r="AF14" s="30" t="str">
+      <c r="AF14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD4="","",_CDQ_day_hour!AD4)</f>
         <v/>
       </c>
-      <c r="AG14" s="30" t="str">
+      <c r="AG14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE4="","",_CDQ_day_hour!AE4)</f>
         <v/>
       </c>
-      <c r="AH14" s="30" t="str">
+      <c r="AH14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF4="","",_CDQ_day_hour!AF4)</f>
         <v/>
       </c>
-      <c r="AI14" s="30" t="str">
+      <c r="AI14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG4="","",_CDQ_day_hour!AG4)</f>
         <v/>
       </c>
-      <c r="AJ14" s="30" t="str">
+      <c r="AJ14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH4="","",_CDQ_day_hour!AH4)</f>
         <v/>
       </c>
-      <c r="AK14" s="30" t="str">
+      <c r="AK14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI4="","",_CDQ_day_hour!AI4)</f>
         <v/>
       </c>
-      <c r="AL14" s="30" t="str">
+      <c r="AL14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ4="","",_CDQ_day_hour!AJ4)</f>
         <v/>
       </c>
-      <c r="AM14" s="30" t="str">
+      <c r="AM14" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK4="","",_CDQ_day_hour!AK4)</f>
         <v/>
       </c>
-      <c r="AN14" s="30" t="str">
+      <c r="AN14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL4="","",_CDQ_day_hour!AL4)</f>
         <v/>
       </c>
-      <c r="AO14" s="30" t="str">
+      <c r="AO14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM4="","",_CDQ_day_hour!AM4)</f>
         <v/>
       </c>
-      <c r="AP14" s="30" t="str">
+      <c r="AP14" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN4="","",_CDQ_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ14" s="30" t="str">
+      <c r="AQ14" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO4="","",_CDQ_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR14" s="65" t="str">
+      <c r="AR14" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP4="","",_CDQ_day_hour!AP4)</f>
         <v/>
       </c>
@@ -3849,171 +3800,171 @@
       <c r="B15" s="27">
         <v>0.125</v>
       </c>
-      <c r="C15" s="30" t="str">
+      <c r="C15" s="32" t="str">
         <f>IF(_CDQ_day_hour!A5="","",_CDQ_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D15" s="30" t="str">
+      <c r="D15" s="32" t="str">
         <f>IF(_CDQ_day_hour!B5="","",_CDQ_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="33" t="str">
         <f>IF(_CDQ_day_hour!C5="","",_CDQ_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F15" s="30" t="str">
+      <c r="F15" s="33" t="str">
         <f>IF(_CDQ_day_hour!D5="","",_CDQ_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G15" s="30" t="str">
+      <c r="G15" s="33" t="str">
         <f>IF(_CDQ_day_hour!E5="","",_CDQ_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H15" s="30" t="str">
+      <c r="H15" s="33" t="str">
         <f>IF(_CDQ_day_hour!F5="","",_CDQ_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I15" s="30" t="str">
+      <c r="I15" s="33" t="str">
         <f>IF(_CDQ_day_hour!G5="","",_CDQ_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J15" s="30" t="str">
+      <c r="J15" s="33" t="str">
         <f>IF(_CDQ_day_hour!H5="","",_CDQ_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K15" s="30" t="str">
+      <c r="K15" s="33" t="str">
         <f>IF(_CDQ_day_hour!I5="","",_CDQ_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L15" s="30" t="str">
+      <c r="L15" s="33" t="str">
         <f>IF(_CDQ_day_hour!J5="","",_CDQ_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M15" s="30" t="str">
+      <c r="M15" s="33" t="str">
         <f>IF(_CDQ_day_hour!K5="","",_CDQ_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N15" s="30" t="str">
+      <c r="N15" s="32" t="str">
         <f>IF(_CDQ_day_hour!L5="","",_CDQ_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O15" s="30" t="str">
+      <c r="O15" s="32" t="str">
         <f>IF(_CDQ_day_hour!M5="","",_CDQ_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P15" s="30" t="str">
+      <c r="P15" s="33" t="str">
         <f>IF(_CDQ_day_hour!N5="","",_CDQ_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q15" s="30" t="str">
+      <c r="Q15" s="33" t="str">
         <f>IF(_CDQ_day_hour!O5="","",_CDQ_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R15" s="30" t="str">
+      <c r="R15" s="33" t="str">
         <f>IF(_CDQ_day_hour!P5="","",_CDQ_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S15" s="30" t="str">
+      <c r="S15" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q5="","",_CDQ_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T15" s="30" t="str">
+      <c r="T15" s="33" t="str">
         <f>IF(_CDQ_day_hour!R5="","",_CDQ_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U15" s="30" t="str">
+      <c r="U15" s="32" t="str">
         <f>IF(_CDQ_day_hour!S5="","",_CDQ_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V15" s="28" t="str">
+      <c r="V15" s="32" t="str">
         <f>IF(_CDQ_day_hour!T5="","",_CDQ_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W15" s="49" t="str">
+      <c r="W15" s="32" t="str">
         <f>IF(_CDQ_day_hour!U5="","",_CDQ_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X15" s="30" t="str">
+      <c r="X15" s="32" t="str">
         <f>IF(_CDQ_day_hour!V5="","",_CDQ_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y15" s="30" t="str">
+      <c r="Y15" s="32" t="str">
         <f>IF(_CDQ_day_hour!W5="","",_CDQ_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z15" s="30" t="str">
+      <c r="Z15" s="32" t="str">
         <f>IF(_CDQ_day_hour!X5="","",_CDQ_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA15" s="30" t="str">
+      <c r="AA15" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y5="","",_CDQ_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB15" s="30" t="str">
+      <c r="AB15" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z5="","",_CDQ_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC15" s="30" t="str">
+      <c r="AC15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA5="","",_CDQ_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD15" s="30" t="str">
+      <c r="AD15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB5="","",_CDQ_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE15" s="30" t="str">
+      <c r="AE15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC5="","",_CDQ_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF15" s="30" t="str">
+      <c r="AF15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD5="","",_CDQ_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG15" s="30" t="str">
+      <c r="AG15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE5="","",_CDQ_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH15" s="30" t="str">
+      <c r="AH15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF5="","",_CDQ_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI15" s="30" t="str">
+      <c r="AI15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG5="","",_CDQ_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ15" s="30" t="str">
+      <c r="AJ15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH5="","",_CDQ_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK15" s="30" t="str">
+      <c r="AK15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI5="","",_CDQ_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL15" s="30" t="str">
+      <c r="AL15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ5="","",_CDQ_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM15" s="30" t="str">
+      <c r="AM15" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK5="","",_CDQ_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN15" s="30" t="str">
+      <c r="AN15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL5="","",_CDQ_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO15" s="30" t="str">
+      <c r="AO15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM5="","",_CDQ_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP15" s="30" t="str">
+      <c r="AP15" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN5="","",_CDQ_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ15" s="30" t="str">
+      <c r="AQ15" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO5="","",_CDQ_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR15" s="65" t="str">
+      <c r="AR15" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP5="","",_CDQ_day_hour!AP5)</f>
         <v/>
       </c>
@@ -4022,171 +3973,171 @@
       <c r="B16" s="27">
         <v>0.166666666666667</v>
       </c>
-      <c r="C16" s="30" t="str">
+      <c r="C16" s="32" t="str">
         <f>IF(_CDQ_day_hour!A6="","",_CDQ_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D16" s="30" t="str">
+      <c r="D16" s="32" t="str">
         <f>IF(_CDQ_day_hour!B6="","",_CDQ_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E16" s="29" t="str">
+      <c r="E16" s="33" t="str">
         <f>IF(_CDQ_day_hour!C6="","",_CDQ_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F16" s="30" t="str">
+      <c r="F16" s="33" t="str">
         <f>IF(_CDQ_day_hour!D6="","",_CDQ_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G16" s="30" t="str">
+      <c r="G16" s="33" t="str">
         <f>IF(_CDQ_day_hour!E6="","",_CDQ_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H16" s="30" t="str">
+      <c r="H16" s="33" t="str">
         <f>IF(_CDQ_day_hour!F6="","",_CDQ_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I16" s="30" t="str">
+      <c r="I16" s="33" t="str">
         <f>IF(_CDQ_day_hour!G6="","",_CDQ_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J16" s="30" t="str">
+      <c r="J16" s="33" t="str">
         <f>IF(_CDQ_day_hour!H6="","",_CDQ_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K16" s="30" t="str">
+      <c r="K16" s="33" t="str">
         <f>IF(_CDQ_day_hour!I6="","",_CDQ_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L16" s="30" t="str">
+      <c r="L16" s="33" t="str">
         <f>IF(_CDQ_day_hour!J6="","",_CDQ_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M16" s="30" t="str">
+      <c r="M16" s="33" t="str">
         <f>IF(_CDQ_day_hour!K6="","",_CDQ_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N16" s="30" t="str">
+      <c r="N16" s="32" t="str">
         <f>IF(_CDQ_day_hour!L6="","",_CDQ_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O16" s="30" t="str">
+      <c r="O16" s="32" t="str">
         <f>IF(_CDQ_day_hour!M6="","",_CDQ_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P16" s="30" t="str">
+      <c r="P16" s="33" t="str">
         <f>IF(_CDQ_day_hour!N6="","",_CDQ_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q16" s="30" t="str">
+      <c r="Q16" s="33" t="str">
         <f>IF(_CDQ_day_hour!O6="","",_CDQ_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R16" s="30" t="str">
+      <c r="R16" s="33" t="str">
         <f>IF(_CDQ_day_hour!P6="","",_CDQ_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S16" s="30" t="str">
+      <c r="S16" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q6="","",_CDQ_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T16" s="30" t="str">
+      <c r="T16" s="33" t="str">
         <f>IF(_CDQ_day_hour!R6="","",_CDQ_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U16" s="30" t="str">
+      <c r="U16" s="32" t="str">
         <f>IF(_CDQ_day_hour!S6="","",_CDQ_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V16" s="28" t="str">
+      <c r="V16" s="32" t="str">
         <f>IF(_CDQ_day_hour!T6="","",_CDQ_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W16" s="49" t="str">
+      <c r="W16" s="32" t="str">
         <f>IF(_CDQ_day_hour!U6="","",_CDQ_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X16" s="30" t="str">
+      <c r="X16" s="32" t="str">
         <f>IF(_CDQ_day_hour!V6="","",_CDQ_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y16" s="30" t="str">
+      <c r="Y16" s="32" t="str">
         <f>IF(_CDQ_day_hour!W6="","",_CDQ_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z16" s="30" t="str">
+      <c r="Z16" s="32" t="str">
         <f>IF(_CDQ_day_hour!X6="","",_CDQ_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA16" s="30" t="str">
+      <c r="AA16" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y6="","",_CDQ_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB16" s="30" t="str">
+      <c r="AB16" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z6="","",_CDQ_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AC16" s="30" t="str">
+      <c r="AC16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA6="","",_CDQ_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AD16" s="30" t="str">
+      <c r="AD16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB6="","",_CDQ_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AE16" s="30" t="str">
+      <c r="AE16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC6="","",_CDQ_day_hour!AC6)</f>
         <v/>
       </c>
-      <c r="AF16" s="30" t="str">
+      <c r="AF16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD6="","",_CDQ_day_hour!AD6)</f>
         <v/>
       </c>
-      <c r="AG16" s="30" t="str">
+      <c r="AG16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE6="","",_CDQ_day_hour!AE6)</f>
         <v/>
       </c>
-      <c r="AH16" s="30" t="str">
+      <c r="AH16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF6="","",_CDQ_day_hour!AF6)</f>
         <v/>
       </c>
-      <c r="AI16" s="30" t="str">
+      <c r="AI16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG6="","",_CDQ_day_hour!AG6)</f>
         <v/>
       </c>
-      <c r="AJ16" s="30" t="str">
+      <c r="AJ16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH6="","",_CDQ_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK16" s="30" t="str">
+      <c r="AK16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI6="","",_CDQ_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL16" s="30" t="str">
+      <c r="AL16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ6="","",_CDQ_day_hour!AJ6)</f>
         <v/>
       </c>
-      <c r="AM16" s="30" t="str">
+      <c r="AM16" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK6="","",_CDQ_day_hour!AK6)</f>
         <v/>
       </c>
-      <c r="AN16" s="30" t="str">
+      <c r="AN16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL6="","",_CDQ_day_hour!AL6)</f>
         <v/>
       </c>
-      <c r="AO16" s="30" t="str">
+      <c r="AO16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM6="","",_CDQ_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP16" s="30" t="str">
+      <c r="AP16" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN6="","",_CDQ_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ16" s="30" t="str">
+      <c r="AQ16" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO6="","",_CDQ_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="AR16" s="65" t="str">
+      <c r="AR16" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP6="","",_CDQ_day_hour!AP6)</f>
         <v/>
       </c>
@@ -4195,171 +4146,171 @@
       <c r="B17" s="27">
         <v>0.208333333333333</v>
       </c>
-      <c r="C17" s="30" t="str">
+      <c r="C17" s="32" t="str">
         <f>IF(_CDQ_day_hour!A7="","",_CDQ_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D17" s="30" t="str">
+      <c r="D17" s="32" t="str">
         <f>IF(_CDQ_day_hour!B7="","",_CDQ_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="33" t="str">
         <f>IF(_CDQ_day_hour!C7="","",_CDQ_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F17" s="30" t="str">
+      <c r="F17" s="33" t="str">
         <f>IF(_CDQ_day_hour!D7="","",_CDQ_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G17" s="30" t="str">
+      <c r="G17" s="33" t="str">
         <f>IF(_CDQ_day_hour!E7="","",_CDQ_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H17" s="30" t="str">
+      <c r="H17" s="33" t="str">
         <f>IF(_CDQ_day_hour!F7="","",_CDQ_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I17" s="30" t="str">
+      <c r="I17" s="33" t="str">
         <f>IF(_CDQ_day_hour!G7="","",_CDQ_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J17" s="30" t="str">
+      <c r="J17" s="33" t="str">
         <f>IF(_CDQ_day_hour!H7="","",_CDQ_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K17" s="30" t="str">
+      <c r="K17" s="33" t="str">
         <f>IF(_CDQ_day_hour!I7="","",_CDQ_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L17" s="30" t="str">
+      <c r="L17" s="33" t="str">
         <f>IF(_CDQ_day_hour!J7="","",_CDQ_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M17" s="30" t="str">
+      <c r="M17" s="33" t="str">
         <f>IF(_CDQ_day_hour!K7="","",_CDQ_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N17" s="30" t="str">
+      <c r="N17" s="32" t="str">
         <f>IF(_CDQ_day_hour!L7="","",_CDQ_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O17" s="30" t="str">
+      <c r="O17" s="32" t="str">
         <f>IF(_CDQ_day_hour!M7="","",_CDQ_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P17" s="30" t="str">
+      <c r="P17" s="33" t="str">
         <f>IF(_CDQ_day_hour!N7="","",_CDQ_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q17" s="30" t="str">
+      <c r="Q17" s="33" t="str">
         <f>IF(_CDQ_day_hour!O7="","",_CDQ_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R17" s="30" t="str">
+      <c r="R17" s="33" t="str">
         <f>IF(_CDQ_day_hour!P7="","",_CDQ_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S17" s="30" t="str">
+      <c r="S17" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q7="","",_CDQ_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T17" s="30" t="str">
+      <c r="T17" s="33" t="str">
         <f>IF(_CDQ_day_hour!R7="","",_CDQ_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U17" s="30" t="str">
+      <c r="U17" s="32" t="str">
         <f>IF(_CDQ_day_hour!S7="","",_CDQ_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V17" s="28" t="str">
+      <c r="V17" s="32" t="str">
         <f>IF(_CDQ_day_hour!T7="","",_CDQ_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W17" s="49" t="str">
+      <c r="W17" s="32" t="str">
         <f>IF(_CDQ_day_hour!U7="","",_CDQ_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X17" s="30" t="str">
+      <c r="X17" s="32" t="str">
         <f>IF(_CDQ_day_hour!V7="","",_CDQ_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y17" s="30" t="str">
+      <c r="Y17" s="32" t="str">
         <f>IF(_CDQ_day_hour!W7="","",_CDQ_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z17" s="30" t="str">
+      <c r="Z17" s="32" t="str">
         <f>IF(_CDQ_day_hour!X7="","",_CDQ_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA17" s="30" t="str">
+      <c r="AA17" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y7="","",_CDQ_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB17" s="30" t="str">
+      <c r="AB17" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z7="","",_CDQ_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC17" s="30" t="str">
+      <c r="AC17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA7="","",_CDQ_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD17" s="30" t="str">
+      <c r="AD17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB7="","",_CDQ_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE17" s="30" t="str">
+      <c r="AE17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC7="","",_CDQ_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF17" s="30" t="str">
+      <c r="AF17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD7="","",_CDQ_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG17" s="30" t="str">
+      <c r="AG17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE7="","",_CDQ_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH17" s="30" t="str">
+      <c r="AH17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF7="","",_CDQ_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI17" s="30" t="str">
+      <c r="AI17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG7="","",_CDQ_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ17" s="30" t="str">
+      <c r="AJ17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH7="","",_CDQ_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK17" s="30" t="str">
+      <c r="AK17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI7="","",_CDQ_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL17" s="30" t="str">
+      <c r="AL17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ7="","",_CDQ_day_hour!AJ7)</f>
         <v/>
       </c>
-      <c r="AM17" s="30" t="str">
+      <c r="AM17" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK7="","",_CDQ_day_hour!AK7)</f>
         <v/>
       </c>
-      <c r="AN17" s="30" t="str">
+      <c r="AN17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL7="","",_CDQ_day_hour!AL7)</f>
         <v/>
       </c>
-      <c r="AO17" s="30" t="str">
+      <c r="AO17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM7="","",_CDQ_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP17" s="30" t="str">
+      <c r="AP17" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN7="","",_CDQ_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ17" s="30" t="str">
+      <c r="AQ17" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO7="","",_CDQ_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="AR17" s="65" t="str">
+      <c r="AR17" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP7="","",_CDQ_day_hour!AP7)</f>
         <v/>
       </c>
@@ -4368,171 +4319,171 @@
       <c r="B18" s="27">
         <v>0.25</v>
       </c>
-      <c r="C18" s="30" t="str">
+      <c r="C18" s="32" t="str">
         <f>IF(_CDQ_day_hour!A8="","",_CDQ_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D18" s="30" t="str">
+      <c r="D18" s="32" t="str">
         <f>IF(_CDQ_day_hour!B8="","",_CDQ_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E18" s="29" t="str">
+      <c r="E18" s="33" t="str">
         <f>IF(_CDQ_day_hour!C8="","",_CDQ_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F18" s="30" t="str">
+      <c r="F18" s="33" t="str">
         <f>IF(_CDQ_day_hour!D8="","",_CDQ_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="33" t="str">
         <f>IF(_CDQ_day_hour!E8="","",_CDQ_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H18" s="30" t="str">
+      <c r="H18" s="33" t="str">
         <f>IF(_CDQ_day_hour!F8="","",_CDQ_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I18" s="30" t="str">
+      <c r="I18" s="33" t="str">
         <f>IF(_CDQ_day_hour!G8="","",_CDQ_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J18" s="30" t="str">
+      <c r="J18" s="33" t="str">
         <f>IF(_CDQ_day_hour!H8="","",_CDQ_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K18" s="30" t="str">
+      <c r="K18" s="33" t="str">
         <f>IF(_CDQ_day_hour!I8="","",_CDQ_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L18" s="30" t="str">
+      <c r="L18" s="33" t="str">
         <f>IF(_CDQ_day_hour!J8="","",_CDQ_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M18" s="30" t="str">
+      <c r="M18" s="33" t="str">
         <f>IF(_CDQ_day_hour!K8="","",_CDQ_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N18" s="30" t="str">
+      <c r="N18" s="32" t="str">
         <f>IF(_CDQ_day_hour!L8="","",_CDQ_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O18" s="30" t="str">
+      <c r="O18" s="32" t="str">
         <f>IF(_CDQ_day_hour!M8="","",_CDQ_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P18" s="30" t="str">
+      <c r="P18" s="33" t="str">
         <f>IF(_CDQ_day_hour!N8="","",_CDQ_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q18" s="30" t="str">
+      <c r="Q18" s="33" t="str">
         <f>IF(_CDQ_day_hour!O8="","",_CDQ_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R18" s="30" t="str">
+      <c r="R18" s="33" t="str">
         <f>IF(_CDQ_day_hour!P8="","",_CDQ_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S18" s="30" t="str">
+      <c r="S18" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q8="","",_CDQ_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T18" s="30" t="str">
+      <c r="T18" s="33" t="str">
         <f>IF(_CDQ_day_hour!R8="","",_CDQ_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U18" s="30" t="str">
+      <c r="U18" s="32" t="str">
         <f>IF(_CDQ_day_hour!S8="","",_CDQ_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V18" s="28" t="str">
+      <c r="V18" s="32" t="str">
         <f>IF(_CDQ_day_hour!T8="","",_CDQ_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W18" s="49" t="str">
+      <c r="W18" s="32" t="str">
         <f>IF(_CDQ_day_hour!U8="","",_CDQ_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X18" s="30" t="str">
+      <c r="X18" s="32" t="str">
         <f>IF(_CDQ_day_hour!V8="","",_CDQ_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y18" s="30" t="str">
+      <c r="Y18" s="32" t="str">
         <f>IF(_CDQ_day_hour!W8="","",_CDQ_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z18" s="30" t="str">
+      <c r="Z18" s="32" t="str">
         <f>IF(_CDQ_day_hour!X8="","",_CDQ_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA18" s="30" t="str">
+      <c r="AA18" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y8="","",_CDQ_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB18" s="30" t="str">
+      <c r="AB18" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z8="","",_CDQ_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC18" s="30" t="str">
+      <c r="AC18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA8="","",_CDQ_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD18" s="30" t="str">
+      <c r="AD18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB8="","",_CDQ_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE18" s="30" t="str">
+      <c r="AE18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC8="","",_CDQ_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF18" s="30" t="str">
+      <c r="AF18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD8="","",_CDQ_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG18" s="30" t="str">
+      <c r="AG18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE8="","",_CDQ_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH18" s="30" t="str">
+      <c r="AH18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF8="","",_CDQ_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI18" s="30" t="str">
+      <c r="AI18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG8="","",_CDQ_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ18" s="30" t="str">
+      <c r="AJ18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH8="","",_CDQ_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK18" s="30" t="str">
+      <c r="AK18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI8="","",_CDQ_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL18" s="30" t="str">
+      <c r="AL18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ8="","",_CDQ_day_hour!AJ8)</f>
         <v/>
       </c>
-      <c r="AM18" s="30" t="str">
+      <c r="AM18" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK8="","",_CDQ_day_hour!AK8)</f>
         <v/>
       </c>
-      <c r="AN18" s="30" t="str">
+      <c r="AN18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL8="","",_CDQ_day_hour!AL8)</f>
         <v/>
       </c>
-      <c r="AO18" s="30" t="str">
+      <c r="AO18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM8="","",_CDQ_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP18" s="30" t="str">
+      <c r="AP18" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN8="","",_CDQ_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ18" s="30" t="str">
+      <c r="AQ18" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO8="","",_CDQ_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="AR18" s="65" t="str">
+      <c r="AR18" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP8="","",_CDQ_day_hour!AP8)</f>
         <v/>
       </c>
@@ -4541,171 +4492,171 @@
       <c r="B19" s="27">
         <v>0.291666666666667</v>
       </c>
-      <c r="C19" s="30" t="str">
+      <c r="C19" s="32" t="str">
         <f>IF(_CDQ_day_hour!A9="","",_CDQ_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D19" s="30" t="str">
+      <c r="D19" s="32" t="str">
         <f>IF(_CDQ_day_hour!B9="","",_CDQ_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="33" t="str">
         <f>IF(_CDQ_day_hour!C9="","",_CDQ_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F19" s="30" t="str">
+      <c r="F19" s="33" t="str">
         <f>IF(_CDQ_day_hour!D9="","",_CDQ_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G19" s="30" t="str">
+      <c r="G19" s="33" t="str">
         <f>IF(_CDQ_day_hour!E9="","",_CDQ_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H19" s="30" t="str">
+      <c r="H19" s="33" t="str">
         <f>IF(_CDQ_day_hour!F9="","",_CDQ_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I19" s="30" t="str">
+      <c r="I19" s="33" t="str">
         <f>IF(_CDQ_day_hour!G9="","",_CDQ_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J19" s="30" t="str">
+      <c r="J19" s="33" t="str">
         <f>IF(_CDQ_day_hour!H9="","",_CDQ_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K19" s="30" t="str">
+      <c r="K19" s="33" t="str">
         <f>IF(_CDQ_day_hour!I9="","",_CDQ_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L19" s="30" t="str">
+      <c r="L19" s="33" t="str">
         <f>IF(_CDQ_day_hour!J9="","",_CDQ_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M19" s="30" t="str">
+      <c r="M19" s="33" t="str">
         <f>IF(_CDQ_day_hour!K9="","",_CDQ_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N19" s="30" t="str">
+      <c r="N19" s="32" t="str">
         <f>IF(_CDQ_day_hour!L9="","",_CDQ_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O19" s="30" t="str">
+      <c r="O19" s="32" t="str">
         <f>IF(_CDQ_day_hour!M9="","",_CDQ_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P19" s="30" t="str">
+      <c r="P19" s="33" t="str">
         <f>IF(_CDQ_day_hour!N9="","",_CDQ_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q19" s="30" t="str">
+      <c r="Q19" s="33" t="str">
         <f>IF(_CDQ_day_hour!O9="","",_CDQ_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R19" s="30" t="str">
+      <c r="R19" s="33" t="str">
         <f>IF(_CDQ_day_hour!P9="","",_CDQ_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S19" s="30" t="str">
+      <c r="S19" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q9="","",_CDQ_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T19" s="30" t="str">
+      <c r="T19" s="33" t="str">
         <f>IF(_CDQ_day_hour!R9="","",_CDQ_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U19" s="30" t="str">
+      <c r="U19" s="32" t="str">
         <f>IF(_CDQ_day_hour!S9="","",_CDQ_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="V19" s="28" t="str">
+      <c r="V19" s="32" t="str">
         <f>IF(_CDQ_day_hour!T9="","",_CDQ_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="W19" s="49" t="str">
+      <c r="W19" s="32" t="str">
         <f>IF(_CDQ_day_hour!U9="","",_CDQ_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="X19" s="30" t="str">
+      <c r="X19" s="32" t="str">
         <f>IF(_CDQ_day_hour!V9="","",_CDQ_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="Y19" s="30" t="str">
+      <c r="Y19" s="32" t="str">
         <f>IF(_CDQ_day_hour!W9="","",_CDQ_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Z19" s="30" t="str">
+      <c r="Z19" s="32" t="str">
         <f>IF(_CDQ_day_hour!X9="","",_CDQ_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="AA19" s="30" t="str">
+      <c r="AA19" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y9="","",_CDQ_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AB19" s="30" t="str">
+      <c r="AB19" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z9="","",_CDQ_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AC19" s="30" t="str">
+      <c r="AC19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA9="","",_CDQ_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AD19" s="30" t="str">
+      <c r="AD19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB9="","",_CDQ_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AE19" s="30" t="str">
+      <c r="AE19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC9="","",_CDQ_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AF19" s="30" t="str">
+      <c r="AF19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD9="","",_CDQ_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AG19" s="30" t="str">
+      <c r="AG19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE9="","",_CDQ_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AH19" s="30" t="str">
+      <c r="AH19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF9="","",_CDQ_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AI19" s="30" t="str">
+      <c r="AI19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG9="","",_CDQ_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AJ19" s="30" t="str">
+      <c r="AJ19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH9="","",_CDQ_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AK19" s="30" t="str">
+      <c r="AK19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI9="","",_CDQ_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AL19" s="30" t="str">
+      <c r="AL19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ9="","",_CDQ_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AM19" s="30" t="str">
+      <c r="AM19" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK9="","",_CDQ_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AN19" s="30" t="str">
+      <c r="AN19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL9="","",_CDQ_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AO19" s="30" t="str">
+      <c r="AO19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM9="","",_CDQ_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP19" s="30" t="str">
+      <c r="AP19" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN9="","",_CDQ_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ19" s="30" t="str">
+      <c r="AQ19" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO9="","",_CDQ_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="AR19" s="65" t="str">
+      <c r="AR19" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP9="","",_CDQ_day_hour!AP9)</f>
         <v/>
       </c>
@@ -4714,171 +4665,171 @@
       <c r="B20" s="27">
         <v>0.333333333333333</v>
       </c>
-      <c r="C20" s="30" t="str">
+      <c r="C20" s="32" t="str">
         <f>IF(_CDQ_day_hour!A10="","",_CDQ_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D20" s="30" t="str">
+      <c r="D20" s="32" t="str">
         <f>IF(_CDQ_day_hour!B10="","",_CDQ_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E20" s="29" t="str">
+      <c r="E20" s="33" t="str">
         <f>IF(_CDQ_day_hour!C10="","",_CDQ_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F20" s="30" t="str">
+      <c r="F20" s="33" t="str">
         <f>IF(_CDQ_day_hour!D10="","",_CDQ_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G20" s="30" t="str">
+      <c r="G20" s="33" t="str">
         <f>IF(_CDQ_day_hour!E10="","",_CDQ_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H20" s="30" t="str">
+      <c r="H20" s="33" t="str">
         <f>IF(_CDQ_day_hour!F10="","",_CDQ_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I20" s="30" t="str">
+      <c r="I20" s="33" t="str">
         <f>IF(_CDQ_day_hour!G10="","",_CDQ_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J20" s="30" t="str">
+      <c r="J20" s="33" t="str">
         <f>IF(_CDQ_day_hour!H10="","",_CDQ_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K20" s="30" t="str">
+      <c r="K20" s="33" t="str">
         <f>IF(_CDQ_day_hour!I10="","",_CDQ_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L20" s="30" t="str">
+      <c r="L20" s="33" t="str">
         <f>IF(_CDQ_day_hour!J10="","",_CDQ_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M20" s="30" t="str">
+      <c r="M20" s="33" t="str">
         <f>IF(_CDQ_day_hour!K10="","",_CDQ_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N20" s="30" t="str">
+      <c r="N20" s="32" t="str">
         <f>IF(_CDQ_day_hour!L10="","",_CDQ_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O20" s="30" t="str">
+      <c r="O20" s="32" t="str">
         <f>IF(_CDQ_day_hour!M10="","",_CDQ_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P20" s="30" t="str">
+      <c r="P20" s="33" t="str">
         <f>IF(_CDQ_day_hour!N10="","",_CDQ_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q20" s="30" t="str">
+      <c r="Q20" s="33" t="str">
         <f>IF(_CDQ_day_hour!O10="","",_CDQ_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R20" s="30" t="str">
+      <c r="R20" s="33" t="str">
         <f>IF(_CDQ_day_hour!P10="","",_CDQ_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S20" s="30" t="str">
+      <c r="S20" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q10="","",_CDQ_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T20" s="30" t="str">
+      <c r="T20" s="33" t="str">
         <f>IF(_CDQ_day_hour!R10="","",_CDQ_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U20" s="30" t="str">
+      <c r="U20" s="32" t="str">
         <f>IF(_CDQ_day_hour!S10="","",_CDQ_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="V20" s="28" t="str">
+      <c r="V20" s="32" t="str">
         <f>IF(_CDQ_day_hour!T10="","",_CDQ_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="W20" s="49" t="str">
+      <c r="W20" s="32" t="str">
         <f>IF(_CDQ_day_hour!U10="","",_CDQ_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="X20" s="30" t="str">
+      <c r="X20" s="32" t="str">
         <f>IF(_CDQ_day_hour!V10="","",_CDQ_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="Y20" s="30" t="str">
+      <c r="Y20" s="32" t="str">
         <f>IF(_CDQ_day_hour!W10="","",_CDQ_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Z20" s="30" t="str">
+      <c r="Z20" s="32" t="str">
         <f>IF(_CDQ_day_hour!X10="","",_CDQ_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="AA20" s="30" t="str">
+      <c r="AA20" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y10="","",_CDQ_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AB20" s="30" t="str">
+      <c r="AB20" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z10="","",_CDQ_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AC20" s="30" t="str">
+      <c r="AC20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA10="","",_CDQ_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AD20" s="30" t="str">
+      <c r="AD20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB10="","",_CDQ_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AE20" s="30" t="str">
+      <c r="AE20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC10="","",_CDQ_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AF20" s="30" t="str">
+      <c r="AF20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD10="","",_CDQ_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AG20" s="30" t="str">
+      <c r="AG20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE10="","",_CDQ_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AH20" s="30" t="str">
+      <c r="AH20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF10="","",_CDQ_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AI20" s="30" t="str">
+      <c r="AI20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG10="","",_CDQ_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AJ20" s="30" t="str">
+      <c r="AJ20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH10="","",_CDQ_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AK20" s="30" t="str">
+      <c r="AK20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI10="","",_CDQ_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AL20" s="30" t="str">
+      <c r="AL20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ10="","",_CDQ_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AM20" s="30" t="str">
+      <c r="AM20" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK10="","",_CDQ_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AN20" s="30" t="str">
+      <c r="AN20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL10="","",_CDQ_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AO20" s="30" t="str">
+      <c r="AO20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM10="","",_CDQ_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AP20" s="30" t="str">
+      <c r="AP20" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN10="","",_CDQ_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ20" s="30" t="str">
+      <c r="AQ20" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO10="","",_CDQ_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="AR20" s="65" t="str">
+      <c r="AR20" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP10="","",_CDQ_day_hour!AP10)</f>
         <v/>
       </c>
@@ -4887,171 +4838,171 @@
       <c r="B21" s="27">
         <v>0.375</v>
       </c>
-      <c r="C21" s="30" t="str">
+      <c r="C21" s="32" t="str">
         <f>IF(_CDQ_day_hour!A11="","",_CDQ_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D21" s="30" t="str">
+      <c r="D21" s="32" t="str">
         <f>IF(_CDQ_day_hour!B11="","",_CDQ_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E21" s="29" t="str">
+      <c r="E21" s="33" t="str">
         <f>IF(_CDQ_day_hour!C11="","",_CDQ_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F21" s="30" t="str">
+      <c r="F21" s="33" t="str">
         <f>IF(_CDQ_day_hour!D11="","",_CDQ_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G21" s="30" t="str">
+      <c r="G21" s="33" t="str">
         <f>IF(_CDQ_day_hour!E11="","",_CDQ_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H21" s="30" t="str">
+      <c r="H21" s="33" t="str">
         <f>IF(_CDQ_day_hour!F11="","",_CDQ_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="33" t="str">
         <f>IF(_CDQ_day_hour!G11="","",_CDQ_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J21" s="30" t="str">
+      <c r="J21" s="33" t="str">
         <f>IF(_CDQ_day_hour!H11="","",_CDQ_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K21" s="30" t="str">
+      <c r="K21" s="33" t="str">
         <f>IF(_CDQ_day_hour!I11="","",_CDQ_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L21" s="30" t="str">
+      <c r="L21" s="33" t="str">
         <f>IF(_CDQ_day_hour!J11="","",_CDQ_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M21" s="30" t="str">
+      <c r="M21" s="33" t="str">
         <f>IF(_CDQ_day_hour!K11="","",_CDQ_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N21" s="30" t="str">
+      <c r="N21" s="32" t="str">
         <f>IF(_CDQ_day_hour!L11="","",_CDQ_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O21" s="30" t="str">
+      <c r="O21" s="32" t="str">
         <f>IF(_CDQ_day_hour!M11="","",_CDQ_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P21" s="30" t="str">
+      <c r="P21" s="33" t="str">
         <f>IF(_CDQ_day_hour!N11="","",_CDQ_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q21" s="30" t="str">
+      <c r="Q21" s="33" t="str">
         <f>IF(_CDQ_day_hour!O11="","",_CDQ_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R21" s="30" t="str">
+      <c r="R21" s="33" t="str">
         <f>IF(_CDQ_day_hour!P11="","",_CDQ_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S21" s="30" t="str">
+      <c r="S21" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q11="","",_CDQ_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T21" s="30" t="str">
+      <c r="T21" s="33" t="str">
         <f>IF(_CDQ_day_hour!R11="","",_CDQ_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U21" s="30" t="str">
+      <c r="U21" s="32" t="str">
         <f>IF(_CDQ_day_hour!S11="","",_CDQ_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="V21" s="28" t="str">
+      <c r="V21" s="32" t="str">
         <f>IF(_CDQ_day_hour!T11="","",_CDQ_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="W21" s="49" t="str">
+      <c r="W21" s="32" t="str">
         <f>IF(_CDQ_day_hour!U11="","",_CDQ_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="X21" s="30" t="str">
+      <c r="X21" s="32" t="str">
         <f>IF(_CDQ_day_hour!V11="","",_CDQ_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="Y21" s="30" t="str">
+      <c r="Y21" s="32" t="str">
         <f>IF(_CDQ_day_hour!W11="","",_CDQ_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Z21" s="30" t="str">
+      <c r="Z21" s="32" t="str">
         <f>IF(_CDQ_day_hour!X11="","",_CDQ_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="AA21" s="30" t="str">
+      <c r="AA21" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y11="","",_CDQ_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AB21" s="30" t="str">
+      <c r="AB21" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z11="","",_CDQ_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AC21" s="30" t="str">
+      <c r="AC21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA11="","",_CDQ_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AD21" s="30" t="str">
+      <c r="AD21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB11="","",_CDQ_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AE21" s="30" t="str">
+      <c r="AE21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC11="","",_CDQ_day_hour!AC11)</f>
         <v/>
       </c>
-      <c r="AF21" s="30" t="str">
+      <c r="AF21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD11="","",_CDQ_day_hour!AD11)</f>
         <v/>
       </c>
-      <c r="AG21" s="30" t="str">
+      <c r="AG21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE11="","",_CDQ_day_hour!AE11)</f>
         <v/>
       </c>
-      <c r="AH21" s="30" t="str">
+      <c r="AH21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF11="","",_CDQ_day_hour!AF11)</f>
         <v/>
       </c>
-      <c r="AI21" s="30" t="str">
+      <c r="AI21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG11="","",_CDQ_day_hour!AG11)</f>
         <v/>
       </c>
-      <c r="AJ21" s="30" t="str">
+      <c r="AJ21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH11="","",_CDQ_day_hour!AH11)</f>
         <v/>
       </c>
-      <c r="AK21" s="30" t="str">
+      <c r="AK21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI11="","",_CDQ_day_hour!AI11)</f>
         <v/>
       </c>
-      <c r="AL21" s="30" t="str">
+      <c r="AL21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ11="","",_CDQ_day_hour!AJ11)</f>
         <v/>
       </c>
-      <c r="AM21" s="30" t="str">
+      <c r="AM21" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK11="","",_CDQ_day_hour!AK11)</f>
         <v/>
       </c>
-      <c r="AN21" s="30" t="str">
+      <c r="AN21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL11="","",_CDQ_day_hour!AL11)</f>
         <v/>
       </c>
-      <c r="AO21" s="30" t="str">
+      <c r="AO21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM11="","",_CDQ_day_hour!AM11)</f>
         <v/>
       </c>
-      <c r="AP21" s="30" t="str">
+      <c r="AP21" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN11="","",_CDQ_day_hour!AN11)</f>
         <v/>
       </c>
-      <c r="AQ21" s="30" t="str">
+      <c r="AQ21" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO11="","",_CDQ_day_hour!AO11)</f>
         <v/>
       </c>
-      <c r="AR21" s="65" t="str">
+      <c r="AR21" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP11="","",_CDQ_day_hour!AP11)</f>
         <v/>
       </c>
@@ -5060,171 +5011,171 @@
       <c r="B22" s="27">
         <v>0.416666666666666</v>
       </c>
-      <c r="C22" s="30" t="str">
+      <c r="C22" s="32" t="str">
         <f>IF(_CDQ_day_hour!A12="","",_CDQ_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D22" s="30" t="str">
+      <c r="D22" s="32" t="str">
         <f>IF(_CDQ_day_hour!B12="","",_CDQ_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E22" s="30" t="str">
+      <c r="E22" s="33" t="str">
         <f>IF(_CDQ_day_hour!C12="","",_CDQ_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F22" s="30" t="str">
+      <c r="F22" s="33" t="str">
         <f>IF(_CDQ_day_hour!D12="","",_CDQ_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G22" s="30" t="str">
+      <c r="G22" s="33" t="str">
         <f>IF(_CDQ_day_hour!E12="","",_CDQ_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H22" s="30" t="str">
+      <c r="H22" s="33" t="str">
         <f>IF(_CDQ_day_hour!F12="","",_CDQ_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="I22" s="33" t="str">
         <f>IF(_CDQ_day_hour!G12="","",_CDQ_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J22" s="30" t="str">
+      <c r="J22" s="33" t="str">
         <f>IF(_CDQ_day_hour!H12="","",_CDQ_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K22" s="30" t="str">
+      <c r="K22" s="33" t="str">
         <f>IF(_CDQ_day_hour!I12="","",_CDQ_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L22" s="30" t="str">
+      <c r="L22" s="33" t="str">
         <f>IF(_CDQ_day_hour!J12="","",_CDQ_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M22" s="30" t="str">
+      <c r="M22" s="33" t="str">
         <f>IF(_CDQ_day_hour!K12="","",_CDQ_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N22" s="30" t="str">
+      <c r="N22" s="32" t="str">
         <f>IF(_CDQ_day_hour!L12="","",_CDQ_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O22" s="30" t="str">
+      <c r="O22" s="32" t="str">
         <f>IF(_CDQ_day_hour!M12="","",_CDQ_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P22" s="30" t="str">
+      <c r="P22" s="33" t="str">
         <f>IF(_CDQ_day_hour!N12="","",_CDQ_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q22" s="30" t="str">
+      <c r="Q22" s="33" t="str">
         <f>IF(_CDQ_day_hour!O12="","",_CDQ_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R22" s="30" t="str">
+      <c r="R22" s="33" t="str">
         <f>IF(_CDQ_day_hour!P12="","",_CDQ_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S22" s="30" t="str">
+      <c r="S22" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q12="","",_CDQ_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T22" s="30" t="str">
+      <c r="T22" s="33" t="str">
         <f>IF(_CDQ_day_hour!R12="","",_CDQ_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U22" s="30" t="str">
+      <c r="U22" s="32" t="str">
         <f>IF(_CDQ_day_hour!S12="","",_CDQ_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="V22" s="28" t="str">
+      <c r="V22" s="32" t="str">
         <f>IF(_CDQ_day_hour!T12="","",_CDQ_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="W22" s="49" t="str">
+      <c r="W22" s="32" t="str">
         <f>IF(_CDQ_day_hour!U12="","",_CDQ_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="X22" s="30" t="str">
+      <c r="X22" s="32" t="str">
         <f>IF(_CDQ_day_hour!V12="","",_CDQ_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="Y22" s="30" t="str">
+      <c r="Y22" s="32" t="str">
         <f>IF(_CDQ_day_hour!W12="","",_CDQ_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Z22" s="30" t="str">
+      <c r="Z22" s="32" t="str">
         <f>IF(_CDQ_day_hour!X12="","",_CDQ_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="AA22" s="30" t="str">
+      <c r="AA22" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y12="","",_CDQ_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AB22" s="30" t="str">
+      <c r="AB22" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z12="","",_CDQ_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AC22" s="30" t="str">
+      <c r="AC22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA12="","",_CDQ_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AD22" s="30" t="str">
+      <c r="AD22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB12="","",_CDQ_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AE22" s="30" t="str">
+      <c r="AE22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC12="","",_CDQ_day_hour!AC12)</f>
         <v/>
       </c>
-      <c r="AF22" s="30" t="str">
+      <c r="AF22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD12="","",_CDQ_day_hour!AD12)</f>
         <v/>
       </c>
-      <c r="AG22" s="30" t="str">
+      <c r="AG22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE12="","",_CDQ_day_hour!AE12)</f>
         <v/>
       </c>
-      <c r="AH22" s="30" t="str">
+      <c r="AH22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF12="","",_CDQ_day_hour!AF12)</f>
         <v/>
       </c>
-      <c r="AI22" s="30" t="str">
+      <c r="AI22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG12="","",_CDQ_day_hour!AG12)</f>
         <v/>
       </c>
-      <c r="AJ22" s="30" t="str">
+      <c r="AJ22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH12="","",_CDQ_day_hour!AH12)</f>
         <v/>
       </c>
-      <c r="AK22" s="30" t="str">
+      <c r="AK22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI12="","",_CDQ_day_hour!AI12)</f>
         <v/>
       </c>
-      <c r="AL22" s="30" t="str">
+      <c r="AL22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ12="","",_CDQ_day_hour!AJ12)</f>
         <v/>
       </c>
-      <c r="AM22" s="30" t="str">
+      <c r="AM22" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK12="","",_CDQ_day_hour!AK12)</f>
         <v/>
       </c>
-      <c r="AN22" s="30" t="str">
+      <c r="AN22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL12="","",_CDQ_day_hour!AL12)</f>
         <v/>
       </c>
-      <c r="AO22" s="30" t="str">
+      <c r="AO22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM12="","",_CDQ_day_hour!AM12)</f>
         <v/>
       </c>
-      <c r="AP22" s="30" t="str">
+      <c r="AP22" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN12="","",_CDQ_day_hour!AN12)</f>
         <v/>
       </c>
-      <c r="AQ22" s="30" t="str">
+      <c r="AQ22" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO12="","",_CDQ_day_hour!AO12)</f>
         <v/>
       </c>
-      <c r="AR22" s="65" t="str">
+      <c r="AR22" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP12="","",_CDQ_day_hour!AP12)</f>
         <v/>
       </c>
@@ -5233,171 +5184,171 @@
       <c r="B23" s="27">
         <v>0.458333333333333</v>
       </c>
-      <c r="C23" s="30" t="str">
+      <c r="C23" s="32" t="str">
         <f>IF(_CDQ_day_hour!A13="","",_CDQ_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D23" s="30" t="str">
+      <c r="D23" s="32" t="str">
         <f>IF(_CDQ_day_hour!B13="","",_CDQ_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E23" s="30" t="str">
+      <c r="E23" s="33" t="str">
         <f>IF(_CDQ_day_hour!C13="","",_CDQ_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F23" s="30" t="str">
+      <c r="F23" s="33" t="str">
         <f>IF(_CDQ_day_hour!D13="","",_CDQ_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G23" s="30" t="str">
+      <c r="G23" s="33" t="str">
         <f>IF(_CDQ_day_hour!E13="","",_CDQ_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H23" s="30" t="str">
+      <c r="H23" s="33" t="str">
         <f>IF(_CDQ_day_hour!F13="","",_CDQ_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I23" s="30" t="str">
+      <c r="I23" s="33" t="str">
         <f>IF(_CDQ_day_hour!G13="","",_CDQ_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J23" s="30" t="str">
+      <c r="J23" s="33" t="str">
         <f>IF(_CDQ_day_hour!H13="","",_CDQ_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K23" s="30" t="str">
+      <c r="K23" s="33" t="str">
         <f>IF(_CDQ_day_hour!I13="","",_CDQ_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L23" s="30" t="str">
+      <c r="L23" s="33" t="str">
         <f>IF(_CDQ_day_hour!J13="","",_CDQ_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M23" s="30" t="str">
+      <c r="M23" s="33" t="str">
         <f>IF(_CDQ_day_hour!K13="","",_CDQ_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N23" s="30" t="str">
+      <c r="N23" s="32" t="str">
         <f>IF(_CDQ_day_hour!L13="","",_CDQ_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O23" s="30" t="str">
+      <c r="O23" s="32" t="str">
         <f>IF(_CDQ_day_hour!M13="","",_CDQ_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P23" s="30" t="str">
+      <c r="P23" s="33" t="str">
         <f>IF(_CDQ_day_hour!N13="","",_CDQ_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q23" s="30" t="str">
+      <c r="Q23" s="33" t="str">
         <f>IF(_CDQ_day_hour!O13="","",_CDQ_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R23" s="30" t="str">
+      <c r="R23" s="33" t="str">
         <f>IF(_CDQ_day_hour!P13="","",_CDQ_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S23" s="30" t="str">
+      <c r="S23" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q13="","",_CDQ_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T23" s="30" t="str">
+      <c r="T23" s="33" t="str">
         <f>IF(_CDQ_day_hour!R13="","",_CDQ_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U23" s="30" t="str">
+      <c r="U23" s="32" t="str">
         <f>IF(_CDQ_day_hour!S13="","",_CDQ_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="V23" s="28" t="str">
+      <c r="V23" s="32" t="str">
         <f>IF(_CDQ_day_hour!T13="","",_CDQ_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="W23" s="49" t="str">
+      <c r="W23" s="32" t="str">
         <f>IF(_CDQ_day_hour!U13="","",_CDQ_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="X23" s="30" t="str">
+      <c r="X23" s="32" t="str">
         <f>IF(_CDQ_day_hour!V13="","",_CDQ_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="Y23" s="30" t="str">
+      <c r="Y23" s="32" t="str">
         <f>IF(_CDQ_day_hour!W13="","",_CDQ_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Z23" s="30" t="str">
+      <c r="Z23" s="32" t="str">
         <f>IF(_CDQ_day_hour!X13="","",_CDQ_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="AA23" s="30" t="str">
+      <c r="AA23" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y13="","",_CDQ_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AB23" s="30" t="str">
+      <c r="AB23" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z13="","",_CDQ_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AC23" s="30" t="str">
+      <c r="AC23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA13="","",_CDQ_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AD23" s="30" t="str">
+      <c r="AD23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB13="","",_CDQ_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AE23" s="30" t="str">
+      <c r="AE23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC13="","",_CDQ_day_hour!AC13)</f>
         <v/>
       </c>
-      <c r="AF23" s="30" t="str">
+      <c r="AF23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD13="","",_CDQ_day_hour!AD13)</f>
         <v/>
       </c>
-      <c r="AG23" s="30" t="str">
+      <c r="AG23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE13="","",_CDQ_day_hour!AE13)</f>
         <v/>
       </c>
-      <c r="AH23" s="30" t="str">
+      <c r="AH23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF13="","",_CDQ_day_hour!AF13)</f>
         <v/>
       </c>
-      <c r="AI23" s="30" t="str">
+      <c r="AI23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG13="","",_CDQ_day_hour!AG13)</f>
         <v/>
       </c>
-      <c r="AJ23" s="30" t="str">
+      <c r="AJ23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH13="","",_CDQ_day_hour!AH13)</f>
         <v/>
       </c>
-      <c r="AK23" s="30" t="str">
+      <c r="AK23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI13="","",_CDQ_day_hour!AI13)</f>
         <v/>
       </c>
-      <c r="AL23" s="30" t="str">
+      <c r="AL23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ13="","",_CDQ_day_hour!AJ13)</f>
         <v/>
       </c>
-      <c r="AM23" s="30" t="str">
+      <c r="AM23" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK13="","",_CDQ_day_hour!AK13)</f>
         <v/>
       </c>
-      <c r="AN23" s="30" t="str">
+      <c r="AN23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL13="","",_CDQ_day_hour!AL13)</f>
         <v/>
       </c>
-      <c r="AO23" s="30" t="str">
+      <c r="AO23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM13="","",_CDQ_day_hour!AM13)</f>
         <v/>
       </c>
-      <c r="AP23" s="30" t="str">
+      <c r="AP23" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN13="","",_CDQ_day_hour!AN13)</f>
         <v/>
       </c>
-      <c r="AQ23" s="30" t="str">
+      <c r="AQ23" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO13="","",_CDQ_day_hour!AO13)</f>
         <v/>
       </c>
-      <c r="AR23" s="65" t="str">
+      <c r="AR23" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP13="","",_CDQ_day_hour!AP13)</f>
         <v/>
       </c>
@@ -5406,171 +5357,171 @@
       <c r="B24" s="27">
         <v>0.5</v>
       </c>
-      <c r="C24" s="30" t="str">
+      <c r="C24" s="32" t="str">
         <f>IF(_CDQ_day_hour!A14="","",_CDQ_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D24" s="30" t="str">
+      <c r="D24" s="32" t="str">
         <f>IF(_CDQ_day_hour!B14="","",_CDQ_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E24" s="30" t="str">
+      <c r="E24" s="33" t="str">
         <f>IF(_CDQ_day_hour!C14="","",_CDQ_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F24" s="30" t="str">
+      <c r="F24" s="33" t="str">
         <f>IF(_CDQ_day_hour!D14="","",_CDQ_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G24" s="30" t="str">
+      <c r="G24" s="33" t="str">
         <f>IF(_CDQ_day_hour!E14="","",_CDQ_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H24" s="30" t="str">
+      <c r="H24" s="33" t="str">
         <f>IF(_CDQ_day_hour!F14="","",_CDQ_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I24" s="30" t="str">
+      <c r="I24" s="33" t="str">
         <f>IF(_CDQ_day_hour!G14="","",_CDQ_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J24" s="30" t="str">
+      <c r="J24" s="33" t="str">
         <f>IF(_CDQ_day_hour!H14="","",_CDQ_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K24" s="30" t="str">
+      <c r="K24" s="33" t="str">
         <f>IF(_CDQ_day_hour!I14="","",_CDQ_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L24" s="30" t="str">
+      <c r="L24" s="33" t="str">
         <f>IF(_CDQ_day_hour!J14="","",_CDQ_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M24" s="30" t="str">
+      <c r="M24" s="33" t="str">
         <f>IF(_CDQ_day_hour!K14="","",_CDQ_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N24" s="30" t="str">
+      <c r="N24" s="32" t="str">
         <f>IF(_CDQ_day_hour!L14="","",_CDQ_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O24" s="30" t="str">
+      <c r="O24" s="32" t="str">
         <f>IF(_CDQ_day_hour!M14="","",_CDQ_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P24" s="30" t="str">
+      <c r="P24" s="33" t="str">
         <f>IF(_CDQ_day_hour!N14="","",_CDQ_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q24" s="30" t="str">
+      <c r="Q24" s="33" t="str">
         <f>IF(_CDQ_day_hour!O14="","",_CDQ_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R24" s="30" t="str">
+      <c r="R24" s="33" t="str">
         <f>IF(_CDQ_day_hour!P14="","",_CDQ_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S24" s="30" t="str">
+      <c r="S24" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q14="","",_CDQ_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T24" s="30" t="str">
+      <c r="T24" s="33" t="str">
         <f>IF(_CDQ_day_hour!R14="","",_CDQ_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U24" s="30" t="str">
+      <c r="U24" s="32" t="str">
         <f>IF(_CDQ_day_hour!S14="","",_CDQ_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="V24" s="28" t="str">
+      <c r="V24" s="32" t="str">
         <f>IF(_CDQ_day_hour!T14="","",_CDQ_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="W24" s="49" t="str">
+      <c r="W24" s="32" t="str">
         <f>IF(_CDQ_day_hour!U14="","",_CDQ_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="X24" s="30" t="str">
+      <c r="X24" s="32" t="str">
         <f>IF(_CDQ_day_hour!V14="","",_CDQ_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="Y24" s="30" t="str">
+      <c r="Y24" s="32" t="str">
         <f>IF(_CDQ_day_hour!W14="","",_CDQ_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Z24" s="30" t="str">
+      <c r="Z24" s="32" t="str">
         <f>IF(_CDQ_day_hour!X14="","",_CDQ_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="AA24" s="30" t="str">
+      <c r="AA24" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y14="","",_CDQ_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AB24" s="30" t="str">
+      <c r="AB24" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z14="","",_CDQ_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AC24" s="30" t="str">
+      <c r="AC24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA14="","",_CDQ_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AD24" s="30" t="str">
+      <c r="AD24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB14="","",_CDQ_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AE24" s="30" t="str">
+      <c r="AE24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC14="","",_CDQ_day_hour!AC14)</f>
         <v/>
       </c>
-      <c r="AF24" s="30" t="str">
+      <c r="AF24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD14="","",_CDQ_day_hour!AD14)</f>
         <v/>
       </c>
-      <c r="AG24" s="30" t="str">
+      <c r="AG24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE14="","",_CDQ_day_hour!AE14)</f>
         <v/>
       </c>
-      <c r="AH24" s="30" t="str">
+      <c r="AH24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF14="","",_CDQ_day_hour!AF14)</f>
         <v/>
       </c>
-      <c r="AI24" s="30" t="str">
+      <c r="AI24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG14="","",_CDQ_day_hour!AG14)</f>
         <v/>
       </c>
-      <c r="AJ24" s="30" t="str">
+      <c r="AJ24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH14="","",_CDQ_day_hour!AH14)</f>
         <v/>
       </c>
-      <c r="AK24" s="30" t="str">
+      <c r="AK24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI14="","",_CDQ_day_hour!AI14)</f>
         <v/>
       </c>
-      <c r="AL24" s="30" t="str">
+      <c r="AL24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ14="","",_CDQ_day_hour!AJ14)</f>
         <v/>
       </c>
-      <c r="AM24" s="30" t="str">
+      <c r="AM24" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK14="","",_CDQ_day_hour!AK14)</f>
         <v/>
       </c>
-      <c r="AN24" s="30" t="str">
+      <c r="AN24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL14="","",_CDQ_day_hour!AL14)</f>
         <v/>
       </c>
-      <c r="AO24" s="30" t="str">
+      <c r="AO24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM14="","",_CDQ_day_hour!AM14)</f>
         <v/>
       </c>
-      <c r="AP24" s="30" t="str">
+      <c r="AP24" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN14="","",_CDQ_day_hour!AN14)</f>
         <v/>
       </c>
-      <c r="AQ24" s="30" t="str">
+      <c r="AQ24" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO14="","",_CDQ_day_hour!AO14)</f>
         <v/>
       </c>
-      <c r="AR24" s="65" t="str">
+      <c r="AR24" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP14="","",_CDQ_day_hour!AP14)</f>
         <v/>
       </c>
@@ -5579,344 +5530,344 @@
       <c r="B25" s="27">
         <v>0.541666666666666</v>
       </c>
-      <c r="C25" s="30" t="str">
+      <c r="C25" s="32" t="str">
         <f>IF(_CDQ_day_hour!A15="","",_CDQ_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D25" s="30" t="str">
+      <c r="D25" s="32" t="str">
         <f>IF(_CDQ_day_hour!B15="","",_CDQ_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E25" s="30" t="str">
+      <c r="E25" s="33" t="str">
         <f>IF(_CDQ_day_hour!C15="","",_CDQ_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F25" s="30" t="str">
+      <c r="F25" s="33" t="str">
         <f>IF(_CDQ_day_hour!D15="","",_CDQ_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G25" s="30" t="str">
+      <c r="G25" s="33" t="str">
         <f>IF(_CDQ_day_hour!E15="","",_CDQ_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H25" s="30" t="str">
+      <c r="H25" s="33" t="str">
         <f>IF(_CDQ_day_hour!F15="","",_CDQ_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I25" s="30" t="str">
+      <c r="I25" s="33" t="str">
         <f>IF(_CDQ_day_hour!G15="","",_CDQ_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J25" s="30" t="str">
+      <c r="J25" s="33" t="str">
         <f>IF(_CDQ_day_hour!H15="","",_CDQ_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K25" s="30" t="str">
+      <c r="K25" s="33" t="str">
         <f>IF(_CDQ_day_hour!I15="","",_CDQ_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L25" s="30" t="str">
+      <c r="L25" s="33" t="str">
         <f>IF(_CDQ_day_hour!J15="","",_CDQ_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M25" s="30" t="str">
+      <c r="M25" s="33" t="str">
         <f>IF(_CDQ_day_hour!K15="","",_CDQ_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N25" s="30" t="str">
+      <c r="N25" s="32" t="str">
         <f>IF(_CDQ_day_hour!L15="","",_CDQ_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O25" s="30" t="str">
+      <c r="O25" s="32" t="str">
         <f>IF(_CDQ_day_hour!M15="","",_CDQ_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P25" s="30" t="str">
+      <c r="P25" s="33" t="str">
         <f>IF(_CDQ_day_hour!N15="","",_CDQ_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q25" s="30" t="str">
+      <c r="Q25" s="33" t="str">
         <f>IF(_CDQ_day_hour!O15="","",_CDQ_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R25" s="30" t="str">
+      <c r="R25" s="33" t="str">
         <f>IF(_CDQ_day_hour!P15="","",_CDQ_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S25" s="30" t="str">
+      <c r="S25" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q15="","",_CDQ_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T25" s="30" t="str">
+      <c r="T25" s="33" t="str">
         <f>IF(_CDQ_day_hour!R15="","",_CDQ_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U25" s="30" t="str">
+      <c r="U25" s="32" t="str">
         <f>IF(_CDQ_day_hour!S15="","",_CDQ_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="V25" s="28" t="str">
+      <c r="V25" s="32" t="str">
         <f>IF(_CDQ_day_hour!T15="","",_CDQ_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="W25" s="49" t="str">
+      <c r="W25" s="32" t="str">
         <f>IF(_CDQ_day_hour!U15="","",_CDQ_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="X25" s="30" t="str">
+      <c r="X25" s="32" t="str">
         <f>IF(_CDQ_day_hour!V15="","",_CDQ_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="Y25" s="30" t="str">
+      <c r="Y25" s="32" t="str">
         <f>IF(_CDQ_day_hour!W15="","",_CDQ_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Z25" s="30" t="str">
+      <c r="Z25" s="32" t="str">
         <f>IF(_CDQ_day_hour!X15="","",_CDQ_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="AA25" s="30" t="str">
+      <c r="AA25" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y15="","",_CDQ_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AB25" s="30" t="str">
+      <c r="AB25" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z15="","",_CDQ_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AC25" s="30" t="str">
+      <c r="AC25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA15="","",_CDQ_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AD25" s="30" t="str">
+      <c r="AD25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB15="","",_CDQ_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AE25" s="30" t="str">
+      <c r="AE25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC15="","",_CDQ_day_hour!AC15)</f>
         <v/>
       </c>
-      <c r="AF25" s="30" t="str">
+      <c r="AF25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD15="","",_CDQ_day_hour!AD15)</f>
         <v/>
       </c>
-      <c r="AG25" s="30" t="str">
+      <c r="AG25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE15="","",_CDQ_day_hour!AE15)</f>
         <v/>
       </c>
-      <c r="AH25" s="30" t="str">
+      <c r="AH25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF15="","",_CDQ_day_hour!AF15)</f>
         <v/>
       </c>
-      <c r="AI25" s="30" t="str">
+      <c r="AI25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG15="","",_CDQ_day_hour!AG15)</f>
         <v/>
       </c>
-      <c r="AJ25" s="30" t="str">
+      <c r="AJ25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH15="","",_CDQ_day_hour!AH15)</f>
         <v/>
       </c>
-      <c r="AK25" s="30" t="str">
+      <c r="AK25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI15="","",_CDQ_day_hour!AI15)</f>
         <v/>
       </c>
-      <c r="AL25" s="30" t="str">
+      <c r="AL25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ15="","",_CDQ_day_hour!AJ15)</f>
         <v/>
       </c>
-      <c r="AM25" s="30" t="str">
+      <c r="AM25" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK15="","",_CDQ_day_hour!AK15)</f>
         <v/>
       </c>
-      <c r="AN25" s="30" t="str">
+      <c r="AN25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL15="","",_CDQ_day_hour!AL15)</f>
         <v/>
       </c>
-      <c r="AO25" s="30" t="str">
+      <c r="AO25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM15="","",_CDQ_day_hour!AM15)</f>
         <v/>
       </c>
-      <c r="AP25" s="30" t="str">
+      <c r="AP25" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN15="","",_CDQ_day_hour!AN15)</f>
         <v/>
       </c>
-      <c r="AQ25" s="30" t="str">
+      <c r="AQ25" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO15="","",_CDQ_day_hour!AO15)</f>
         <v/>
       </c>
-      <c r="AR25" s="65" t="str">
+      <c r="AR25" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP15="","",_CDQ_day_hour!AP15)</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="25.05" customHeight="1" spans="2:44">
-      <c r="B26" s="31">
+      <c r="B26" s="34">
         <v>0.583333333333333</v>
       </c>
-      <c r="C26" s="30" t="str">
+      <c r="C26" s="32" t="str">
         <f>IF(_CDQ_day_hour!A16="","",_CDQ_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D26" s="30" t="str">
+      <c r="D26" s="32" t="str">
         <f>IF(_CDQ_day_hour!B16="","",_CDQ_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E26" s="30" t="str">
+      <c r="E26" s="33" t="str">
         <f>IF(_CDQ_day_hour!C16="","",_CDQ_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F26" s="30" t="str">
+      <c r="F26" s="33" t="str">
         <f>IF(_CDQ_day_hour!D16="","",_CDQ_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G26" s="30" t="str">
+      <c r="G26" s="33" t="str">
         <f>IF(_CDQ_day_hour!E16="","",_CDQ_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H26" s="30" t="str">
+      <c r="H26" s="33" t="str">
         <f>IF(_CDQ_day_hour!F16="","",_CDQ_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="33" t="str">
         <f>IF(_CDQ_day_hour!G16="","",_CDQ_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J26" s="30" t="str">
+      <c r="J26" s="33" t="str">
         <f>IF(_CDQ_day_hour!H16="","",_CDQ_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K26" s="30" t="str">
+      <c r="K26" s="33" t="str">
         <f>IF(_CDQ_day_hour!I16="","",_CDQ_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L26" s="30" t="str">
+      <c r="L26" s="33" t="str">
         <f>IF(_CDQ_day_hour!J16="","",_CDQ_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M26" s="30" t="str">
+      <c r="M26" s="33" t="str">
         <f>IF(_CDQ_day_hour!K16="","",_CDQ_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N26" s="30" t="str">
+      <c r="N26" s="32" t="str">
         <f>IF(_CDQ_day_hour!L16="","",_CDQ_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O26" s="30" t="str">
+      <c r="O26" s="32" t="str">
         <f>IF(_CDQ_day_hour!M16="","",_CDQ_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P26" s="30" t="str">
+      <c r="P26" s="33" t="str">
         <f>IF(_CDQ_day_hour!N16="","",_CDQ_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q26" s="30" t="str">
+      <c r="Q26" s="33" t="str">
         <f>IF(_CDQ_day_hour!O16="","",_CDQ_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R26" s="30" t="str">
+      <c r="R26" s="33" t="str">
         <f>IF(_CDQ_day_hour!P16="","",_CDQ_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S26" s="30" t="str">
+      <c r="S26" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q16="","",_CDQ_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T26" s="30" t="str">
+      <c r="T26" s="33" t="str">
         <f>IF(_CDQ_day_hour!R16="","",_CDQ_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U26" s="30" t="str">
+      <c r="U26" s="32" t="str">
         <f>IF(_CDQ_day_hour!S16="","",_CDQ_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="V26" s="28" t="str">
+      <c r="V26" s="32" t="str">
         <f>IF(_CDQ_day_hour!T16="","",_CDQ_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="W26" s="49" t="str">
+      <c r="W26" s="32" t="str">
         <f>IF(_CDQ_day_hour!U16="","",_CDQ_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="X26" s="30" t="str">
+      <c r="X26" s="32" t="str">
         <f>IF(_CDQ_day_hour!V16="","",_CDQ_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="Y26" s="30" t="str">
+      <c r="Y26" s="32" t="str">
         <f>IF(_CDQ_day_hour!W16="","",_CDQ_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Z26" s="30" t="str">
+      <c r="Z26" s="32" t="str">
         <f>IF(_CDQ_day_hour!X16="","",_CDQ_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="AA26" s="30" t="str">
+      <c r="AA26" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y16="","",_CDQ_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AB26" s="30" t="str">
+      <c r="AB26" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z16="","",_CDQ_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AC26" s="30" t="str">
+      <c r="AC26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA16="","",_CDQ_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AD26" s="30" t="str">
+      <c r="AD26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB16="","",_CDQ_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AE26" s="30" t="str">
+      <c r="AE26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC16="","",_CDQ_day_hour!AC16)</f>
         <v/>
       </c>
-      <c r="AF26" s="30" t="str">
+      <c r="AF26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD16="","",_CDQ_day_hour!AD16)</f>
         <v/>
       </c>
-      <c r="AG26" s="30" t="str">
+      <c r="AG26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE16="","",_CDQ_day_hour!AE16)</f>
         <v/>
       </c>
-      <c r="AH26" s="30" t="str">
+      <c r="AH26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF16="","",_CDQ_day_hour!AF16)</f>
         <v/>
       </c>
-      <c r="AI26" s="30" t="str">
+      <c r="AI26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG16="","",_CDQ_day_hour!AG16)</f>
         <v/>
       </c>
-      <c r="AJ26" s="30" t="str">
+      <c r="AJ26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH16="","",_CDQ_day_hour!AH16)</f>
         <v/>
       </c>
-      <c r="AK26" s="30" t="str">
+      <c r="AK26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI16="","",_CDQ_day_hour!AI16)</f>
         <v/>
       </c>
-      <c r="AL26" s="30" t="str">
+      <c r="AL26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ16="","",_CDQ_day_hour!AJ16)</f>
         <v/>
       </c>
-      <c r="AM26" s="30" t="str">
+      <c r="AM26" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK16="","",_CDQ_day_hour!AK16)</f>
         <v/>
       </c>
-      <c r="AN26" s="30" t="str">
+      <c r="AN26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL16="","",_CDQ_day_hour!AL16)</f>
         <v/>
       </c>
-      <c r="AO26" s="30" t="str">
+      <c r="AO26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM16="","",_CDQ_day_hour!AM16)</f>
         <v/>
       </c>
-      <c r="AP26" s="30" t="str">
+      <c r="AP26" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN16="","",_CDQ_day_hour!AN16)</f>
         <v/>
       </c>
-      <c r="AQ26" s="30" t="str">
+      <c r="AQ26" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO16="","",_CDQ_day_hour!AO16)</f>
         <v/>
       </c>
-      <c r="AR26" s="65" t="str">
+      <c r="AR26" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP16="","",_CDQ_day_hour!AP16)</f>
         <v/>
       </c>
@@ -5925,171 +5876,171 @@
       <c r="B27" s="27">
         <v>0.625</v>
       </c>
-      <c r="C27" s="30" t="str">
+      <c r="C27" s="32" t="str">
         <f>IF(_CDQ_day_hour!A17="","",_CDQ_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D27" s="30" t="str">
+      <c r="D27" s="32" t="str">
         <f>IF(_CDQ_day_hour!B17="","",_CDQ_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E27" s="30" t="str">
+      <c r="E27" s="33" t="str">
         <f>IF(_CDQ_day_hour!C17="","",_CDQ_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F27" s="30" t="str">
+      <c r="F27" s="33" t="str">
         <f>IF(_CDQ_day_hour!D17="","",_CDQ_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G27" s="30" t="str">
+      <c r="G27" s="33" t="str">
         <f>IF(_CDQ_day_hour!E17="","",_CDQ_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H27" s="30" t="str">
+      <c r="H27" s="33" t="str">
         <f>IF(_CDQ_day_hour!F17="","",_CDQ_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I27" s="30" t="str">
+      <c r="I27" s="33" t="str">
         <f>IF(_CDQ_day_hour!G17="","",_CDQ_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J27" s="30" t="str">
+      <c r="J27" s="33" t="str">
         <f>IF(_CDQ_day_hour!H17="","",_CDQ_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K27" s="30" t="str">
+      <c r="K27" s="33" t="str">
         <f>IF(_CDQ_day_hour!I17="","",_CDQ_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L27" s="30" t="str">
+      <c r="L27" s="33" t="str">
         <f>IF(_CDQ_day_hour!J17="","",_CDQ_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M27" s="30" t="str">
+      <c r="M27" s="33" t="str">
         <f>IF(_CDQ_day_hour!K17="","",_CDQ_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N27" s="30" t="str">
+      <c r="N27" s="32" t="str">
         <f>IF(_CDQ_day_hour!L17="","",_CDQ_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O27" s="30" t="str">
+      <c r="O27" s="32" t="str">
         <f>IF(_CDQ_day_hour!M17="","",_CDQ_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P27" s="30" t="str">
+      <c r="P27" s="33" t="str">
         <f>IF(_CDQ_day_hour!N17="","",_CDQ_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q27" s="30" t="str">
+      <c r="Q27" s="33" t="str">
         <f>IF(_CDQ_day_hour!O17="","",_CDQ_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R27" s="30" t="str">
+      <c r="R27" s="33" t="str">
         <f>IF(_CDQ_day_hour!P17="","",_CDQ_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S27" s="30" t="str">
+      <c r="S27" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q17="","",_CDQ_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T27" s="30" t="str">
+      <c r="T27" s="33" t="str">
         <f>IF(_CDQ_day_hour!R17="","",_CDQ_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U27" s="30" t="str">
+      <c r="U27" s="32" t="str">
         <f>IF(_CDQ_day_hour!S17="","",_CDQ_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="V27" s="28" t="str">
+      <c r="V27" s="32" t="str">
         <f>IF(_CDQ_day_hour!T17="","",_CDQ_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="W27" s="49" t="str">
+      <c r="W27" s="32" t="str">
         <f>IF(_CDQ_day_hour!U17="","",_CDQ_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="X27" s="30" t="str">
+      <c r="X27" s="32" t="str">
         <f>IF(_CDQ_day_hour!V17="","",_CDQ_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="Y27" s="30" t="str">
+      <c r="Y27" s="32" t="str">
         <f>IF(_CDQ_day_hour!W17="","",_CDQ_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Z27" s="30" t="str">
+      <c r="Z27" s="32" t="str">
         <f>IF(_CDQ_day_hour!X17="","",_CDQ_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="AA27" s="30" t="str">
+      <c r="AA27" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y17="","",_CDQ_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AB27" s="30" t="str">
+      <c r="AB27" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z17="","",_CDQ_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AC27" s="30" t="str">
+      <c r="AC27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA17="","",_CDQ_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AD27" s="30" t="str">
+      <c r="AD27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB17="","",_CDQ_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AE27" s="30" t="str">
+      <c r="AE27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC17="","",_CDQ_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AF27" s="30" t="str">
+      <c r="AF27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD17="","",_CDQ_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AG27" s="30" t="str">
+      <c r="AG27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE17="","",_CDQ_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AH27" s="30" t="str">
+      <c r="AH27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF17="","",_CDQ_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AI27" s="30" t="str">
+      <c r="AI27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG17="","",_CDQ_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AJ27" s="30" t="str">
+      <c r="AJ27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH17="","",_CDQ_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AK27" s="30" t="str">
+      <c r="AK27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI17="","",_CDQ_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AL27" s="30" t="str">
+      <c r="AL27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ17="","",_CDQ_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AM27" s="30" t="str">
+      <c r="AM27" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK17="","",_CDQ_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AN27" s="30" t="str">
+      <c r="AN27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL17="","",_CDQ_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AO27" s="30" t="str">
+      <c r="AO27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM17="","",_CDQ_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AP27" s="30" t="str">
+      <c r="AP27" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN17="","",_CDQ_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AQ27" s="30" t="str">
+      <c r="AQ27" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO17="","",_CDQ_day_hour!AO17)</f>
         <v/>
       </c>
-      <c r="AR27" s="65" t="str">
+      <c r="AR27" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP17="","",_CDQ_day_hour!AP17)</f>
         <v/>
       </c>
@@ -6098,171 +6049,171 @@
       <c r="B28" s="27">
         <v>0.666666666666667</v>
       </c>
-      <c r="C28" s="30" t="str">
+      <c r="C28" s="32" t="str">
         <f>IF(_CDQ_day_hour!A18="","",_CDQ_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D28" s="30" t="str">
+      <c r="D28" s="32" t="str">
         <f>IF(_CDQ_day_hour!B18="","",_CDQ_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E28" s="30" t="str">
+      <c r="E28" s="33" t="str">
         <f>IF(_CDQ_day_hour!C18="","",_CDQ_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F28" s="30" t="str">
+      <c r="F28" s="33" t="str">
         <f>IF(_CDQ_day_hour!D18="","",_CDQ_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G28" s="30" t="str">
+      <c r="G28" s="33" t="str">
         <f>IF(_CDQ_day_hour!E18="","",_CDQ_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H28" s="30" t="str">
+      <c r="H28" s="33" t="str">
         <f>IF(_CDQ_day_hour!F18="","",_CDQ_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="I28" s="33" t="str">
         <f>IF(_CDQ_day_hour!G18="","",_CDQ_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J28" s="30" t="str">
+      <c r="J28" s="33" t="str">
         <f>IF(_CDQ_day_hour!H18="","",_CDQ_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K28" s="30" t="str">
+      <c r="K28" s="33" t="str">
         <f>IF(_CDQ_day_hour!I18="","",_CDQ_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L28" s="30" t="str">
+      <c r="L28" s="33" t="str">
         <f>IF(_CDQ_day_hour!J18="","",_CDQ_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M28" s="30" t="str">
+      <c r="M28" s="33" t="str">
         <f>IF(_CDQ_day_hour!K18="","",_CDQ_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N28" s="30" t="str">
+      <c r="N28" s="32" t="str">
         <f>IF(_CDQ_day_hour!L18="","",_CDQ_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O28" s="30" t="str">
+      <c r="O28" s="32" t="str">
         <f>IF(_CDQ_day_hour!M18="","",_CDQ_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P28" s="30" t="str">
+      <c r="P28" s="33" t="str">
         <f>IF(_CDQ_day_hour!N18="","",_CDQ_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q28" s="30" t="str">
+      <c r="Q28" s="33" t="str">
         <f>IF(_CDQ_day_hour!O18="","",_CDQ_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R28" s="30" t="str">
+      <c r="R28" s="33" t="str">
         <f>IF(_CDQ_day_hour!P18="","",_CDQ_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S28" s="30" t="str">
+      <c r="S28" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q18="","",_CDQ_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T28" s="30" t="str">
+      <c r="T28" s="33" t="str">
         <f>IF(_CDQ_day_hour!R18="","",_CDQ_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U28" s="30" t="str">
+      <c r="U28" s="32" t="str">
         <f>IF(_CDQ_day_hour!S18="","",_CDQ_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="V28" s="28" t="str">
+      <c r="V28" s="32" t="str">
         <f>IF(_CDQ_day_hour!T18="","",_CDQ_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="W28" s="49" t="str">
+      <c r="W28" s="32" t="str">
         <f>IF(_CDQ_day_hour!U18="","",_CDQ_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="X28" s="30" t="str">
+      <c r="X28" s="32" t="str">
         <f>IF(_CDQ_day_hour!V18="","",_CDQ_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="Y28" s="30" t="str">
+      <c r="Y28" s="32" t="str">
         <f>IF(_CDQ_day_hour!W18="","",_CDQ_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Z28" s="30" t="str">
+      <c r="Z28" s="32" t="str">
         <f>IF(_CDQ_day_hour!X18="","",_CDQ_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="AA28" s="30" t="str">
+      <c r="AA28" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y18="","",_CDQ_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AB28" s="30" t="str">
+      <c r="AB28" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z18="","",_CDQ_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AC28" s="30" t="str">
+      <c r="AC28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA18="","",_CDQ_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AD28" s="30" t="str">
+      <c r="AD28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB18="","",_CDQ_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AE28" s="30" t="str">
+      <c r="AE28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC18="","",_CDQ_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AF28" s="30" t="str">
+      <c r="AF28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD18="","",_CDQ_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AG28" s="30" t="str">
+      <c r="AG28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE18="","",_CDQ_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AH28" s="30" t="str">
+      <c r="AH28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF18="","",_CDQ_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AI28" s="30" t="str">
+      <c r="AI28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG18="","",_CDQ_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AJ28" s="30" t="str">
+      <c r="AJ28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH18="","",_CDQ_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AK28" s="30" t="str">
+      <c r="AK28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI18="","",_CDQ_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AL28" s="30" t="str">
+      <c r="AL28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ18="","",_CDQ_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AM28" s="30" t="str">
+      <c r="AM28" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK18="","",_CDQ_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AN28" s="30" t="str">
+      <c r="AN28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL18="","",_CDQ_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AO28" s="30" t="str">
+      <c r="AO28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM18="","",_CDQ_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AP28" s="30" t="str">
+      <c r="AP28" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN18="","",_CDQ_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AQ28" s="30" t="str">
+      <c r="AQ28" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO18="","",_CDQ_day_hour!AO18)</f>
         <v/>
       </c>
-      <c r="AR28" s="65" t="str">
+      <c r="AR28" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP18="","",_CDQ_day_hour!AP18)</f>
         <v/>
       </c>
@@ -6271,171 +6222,171 @@
       <c r="B29" s="27">
         <v>0.708333333333333</v>
       </c>
-      <c r="C29" s="30" t="str">
+      <c r="C29" s="32" t="str">
         <f>IF(_CDQ_day_hour!A19="","",_CDQ_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D29" s="30" t="str">
+      <c r="D29" s="32" t="str">
         <f>IF(_CDQ_day_hour!B19="","",_CDQ_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E29" s="30" t="str">
+      <c r="E29" s="33" t="str">
         <f>IF(_CDQ_day_hour!C19="","",_CDQ_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F29" s="30" t="str">
+      <c r="F29" s="33" t="str">
         <f>IF(_CDQ_day_hour!D19="","",_CDQ_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G29" s="30" t="str">
+      <c r="G29" s="33" t="str">
         <f>IF(_CDQ_day_hour!E19="","",_CDQ_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H29" s="30" t="str">
+      <c r="H29" s="33" t="str">
         <f>IF(_CDQ_day_hour!F19="","",_CDQ_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I29" s="30" t="str">
+      <c r="I29" s="33" t="str">
         <f>IF(_CDQ_day_hour!G19="","",_CDQ_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J29" s="30" t="str">
+      <c r="J29" s="33" t="str">
         <f>IF(_CDQ_day_hour!H19="","",_CDQ_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K29" s="30" t="str">
+      <c r="K29" s="33" t="str">
         <f>IF(_CDQ_day_hour!I19="","",_CDQ_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L29" s="30" t="str">
+      <c r="L29" s="33" t="str">
         <f>IF(_CDQ_day_hour!J19="","",_CDQ_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M29" s="30" t="str">
+      <c r="M29" s="33" t="str">
         <f>IF(_CDQ_day_hour!K19="","",_CDQ_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N29" s="30" t="str">
+      <c r="N29" s="32" t="str">
         <f>IF(_CDQ_day_hour!L19="","",_CDQ_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O29" s="30" t="str">
+      <c r="O29" s="32" t="str">
         <f>IF(_CDQ_day_hour!M19="","",_CDQ_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P29" s="30" t="str">
+      <c r="P29" s="33" t="str">
         <f>IF(_CDQ_day_hour!N19="","",_CDQ_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q29" s="30" t="str">
+      <c r="Q29" s="33" t="str">
         <f>IF(_CDQ_day_hour!O19="","",_CDQ_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R29" s="30" t="str">
+      <c r="R29" s="33" t="str">
         <f>IF(_CDQ_day_hour!P19="","",_CDQ_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S29" s="30" t="str">
+      <c r="S29" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q19="","",_CDQ_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T29" s="30" t="str">
+      <c r="T29" s="33" t="str">
         <f>IF(_CDQ_day_hour!R19="","",_CDQ_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U29" s="30" t="str">
+      <c r="U29" s="32" t="str">
         <f>IF(_CDQ_day_hour!S19="","",_CDQ_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="V29" s="28" t="str">
+      <c r="V29" s="32" t="str">
         <f>IF(_CDQ_day_hour!T19="","",_CDQ_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="W29" s="49" t="str">
+      <c r="W29" s="32" t="str">
         <f>IF(_CDQ_day_hour!U19="","",_CDQ_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="X29" s="30" t="str">
+      <c r="X29" s="32" t="str">
         <f>IF(_CDQ_day_hour!V19="","",_CDQ_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="Y29" s="30" t="str">
+      <c r="Y29" s="32" t="str">
         <f>IF(_CDQ_day_hour!W19="","",_CDQ_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Z29" s="30" t="str">
+      <c r="Z29" s="32" t="str">
         <f>IF(_CDQ_day_hour!X19="","",_CDQ_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="AA29" s="30" t="str">
+      <c r="AA29" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y19="","",_CDQ_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AB29" s="30" t="str">
+      <c r="AB29" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z19="","",_CDQ_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AC29" s="30" t="str">
+      <c r="AC29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA19="","",_CDQ_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AD29" s="30" t="str">
+      <c r="AD29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB19="","",_CDQ_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AE29" s="30" t="str">
+      <c r="AE29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC19="","",_CDQ_day_hour!AC19)</f>
         <v/>
       </c>
-      <c r="AF29" s="30" t="str">
+      <c r="AF29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD19="","",_CDQ_day_hour!AD19)</f>
         <v/>
       </c>
-      <c r="AG29" s="30" t="str">
+      <c r="AG29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE19="","",_CDQ_day_hour!AE19)</f>
         <v/>
       </c>
-      <c r="AH29" s="30" t="str">
+      <c r="AH29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF19="","",_CDQ_day_hour!AF19)</f>
         <v/>
       </c>
-      <c r="AI29" s="30" t="str">
+      <c r="AI29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG19="","",_CDQ_day_hour!AG19)</f>
         <v/>
       </c>
-      <c r="AJ29" s="30" t="str">
+      <c r="AJ29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH19="","",_CDQ_day_hour!AH19)</f>
         <v/>
       </c>
-      <c r="AK29" s="30" t="str">
+      <c r="AK29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI19="","",_CDQ_day_hour!AI19)</f>
         <v/>
       </c>
-      <c r="AL29" s="30" t="str">
+      <c r="AL29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ19="","",_CDQ_day_hour!AJ19)</f>
         <v/>
       </c>
-      <c r="AM29" s="30" t="str">
+      <c r="AM29" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK19="","",_CDQ_day_hour!AK19)</f>
         <v/>
       </c>
-      <c r="AN29" s="30" t="str">
+      <c r="AN29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL19="","",_CDQ_day_hour!AL19)</f>
         <v/>
       </c>
-      <c r="AO29" s="30" t="str">
+      <c r="AO29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM19="","",_CDQ_day_hour!AM19)</f>
         <v/>
       </c>
-      <c r="AP29" s="30" t="str">
+      <c r="AP29" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN19="","",_CDQ_day_hour!AN19)</f>
         <v/>
       </c>
-      <c r="AQ29" s="30" t="str">
+      <c r="AQ29" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO19="","",_CDQ_day_hour!AO19)</f>
         <v/>
       </c>
-      <c r="AR29" s="65" t="str">
+      <c r="AR29" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP19="","",_CDQ_day_hour!AP19)</f>
         <v/>
       </c>
@@ -6444,171 +6395,171 @@
       <c r="B30" s="27">
         <v>0.75</v>
       </c>
-      <c r="C30" s="30" t="str">
+      <c r="C30" s="32" t="str">
         <f>IF(_CDQ_day_hour!A20="","",_CDQ_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D30" s="30" t="str">
+      <c r="D30" s="32" t="str">
         <f>IF(_CDQ_day_hour!B20="","",_CDQ_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E30" s="30" t="str">
+      <c r="E30" s="33" t="str">
         <f>IF(_CDQ_day_hour!C20="","",_CDQ_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F30" s="30" t="str">
+      <c r="F30" s="33" t="str">
         <f>IF(_CDQ_day_hour!D20="","",_CDQ_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G30" s="30" t="str">
+      <c r="G30" s="33" t="str">
         <f>IF(_CDQ_day_hour!E20="","",_CDQ_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H30" s="30" t="str">
+      <c r="H30" s="33" t="str">
         <f>IF(_CDQ_day_hour!F20="","",_CDQ_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I30" s="30" t="str">
+      <c r="I30" s="33" t="str">
         <f>IF(_CDQ_day_hour!G20="","",_CDQ_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J30" s="30" t="str">
+      <c r="J30" s="33" t="str">
         <f>IF(_CDQ_day_hour!H20="","",_CDQ_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K30" s="30" t="str">
+      <c r="K30" s="33" t="str">
         <f>IF(_CDQ_day_hour!I20="","",_CDQ_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L30" s="30" t="str">
+      <c r="L30" s="33" t="str">
         <f>IF(_CDQ_day_hour!J20="","",_CDQ_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M30" s="30" t="str">
+      <c r="M30" s="33" t="str">
         <f>IF(_CDQ_day_hour!K20="","",_CDQ_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N30" s="30" t="str">
+      <c r="N30" s="32" t="str">
         <f>IF(_CDQ_day_hour!L20="","",_CDQ_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O30" s="30" t="str">
+      <c r="O30" s="32" t="str">
         <f>IF(_CDQ_day_hour!M20="","",_CDQ_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P30" s="30" t="str">
+      <c r="P30" s="33" t="str">
         <f>IF(_CDQ_day_hour!N20="","",_CDQ_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q30" s="30" t="str">
+      <c r="Q30" s="33" t="str">
         <f>IF(_CDQ_day_hour!O20="","",_CDQ_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R30" s="30" t="str">
+      <c r="R30" s="33" t="str">
         <f>IF(_CDQ_day_hour!P20="","",_CDQ_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S30" s="30" t="str">
+      <c r="S30" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q20="","",_CDQ_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T30" s="30" t="str">
+      <c r="T30" s="33" t="str">
         <f>IF(_CDQ_day_hour!R20="","",_CDQ_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U30" s="30" t="str">
+      <c r="U30" s="32" t="str">
         <f>IF(_CDQ_day_hour!S20="","",_CDQ_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="V30" s="28" t="str">
+      <c r="V30" s="32" t="str">
         <f>IF(_CDQ_day_hour!T20="","",_CDQ_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="W30" s="49" t="str">
+      <c r="W30" s="32" t="str">
         <f>IF(_CDQ_day_hour!U20="","",_CDQ_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="X30" s="30" t="str">
+      <c r="X30" s="32" t="str">
         <f>IF(_CDQ_day_hour!V20="","",_CDQ_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="Y30" s="30" t="str">
+      <c r="Y30" s="32" t="str">
         <f>IF(_CDQ_day_hour!W20="","",_CDQ_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Z30" s="30" t="str">
+      <c r="Z30" s="32" t="str">
         <f>IF(_CDQ_day_hour!X20="","",_CDQ_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="AA30" s="30" t="str">
+      <c r="AA30" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y20="","",_CDQ_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AB30" s="30" t="str">
+      <c r="AB30" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z20="","",_CDQ_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AC30" s="30" t="str">
+      <c r="AC30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA20="","",_CDQ_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AD30" s="30" t="str">
+      <c r="AD30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB20="","",_CDQ_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AE30" s="30" t="str">
+      <c r="AE30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC20="","",_CDQ_day_hour!AC20)</f>
         <v/>
       </c>
-      <c r="AF30" s="30" t="str">
+      <c r="AF30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD20="","",_CDQ_day_hour!AD20)</f>
         <v/>
       </c>
-      <c r="AG30" s="30" t="str">
+      <c r="AG30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE20="","",_CDQ_day_hour!AE20)</f>
         <v/>
       </c>
-      <c r="AH30" s="30" t="str">
+      <c r="AH30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF20="","",_CDQ_day_hour!AF20)</f>
         <v/>
       </c>
-      <c r="AI30" s="30" t="str">
+      <c r="AI30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG20="","",_CDQ_day_hour!AG20)</f>
         <v/>
       </c>
-      <c r="AJ30" s="30" t="str">
+      <c r="AJ30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH20="","",_CDQ_day_hour!AH20)</f>
         <v/>
       </c>
-      <c r="AK30" s="30" t="str">
+      <c r="AK30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI20="","",_CDQ_day_hour!AI20)</f>
         <v/>
       </c>
-      <c r="AL30" s="30" t="str">
+      <c r="AL30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ20="","",_CDQ_day_hour!AJ20)</f>
         <v/>
       </c>
-      <c r="AM30" s="30" t="str">
+      <c r="AM30" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK20="","",_CDQ_day_hour!AK20)</f>
         <v/>
       </c>
-      <c r="AN30" s="30" t="str">
+      <c r="AN30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL20="","",_CDQ_day_hour!AL20)</f>
         <v/>
       </c>
-      <c r="AO30" s="30" t="str">
+      <c r="AO30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM20="","",_CDQ_day_hour!AM20)</f>
         <v/>
       </c>
-      <c r="AP30" s="30" t="str">
+      <c r="AP30" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN20="","",_CDQ_day_hour!AN20)</f>
         <v/>
       </c>
-      <c r="AQ30" s="30" t="str">
+      <c r="AQ30" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO20="","",_CDQ_day_hour!AO20)</f>
         <v/>
       </c>
-      <c r="AR30" s="65" t="str">
+      <c r="AR30" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP20="","",_CDQ_day_hour!AP20)</f>
         <v/>
       </c>
@@ -6617,171 +6568,171 @@
       <c r="B31" s="27">
         <v>0.791666666666667</v>
       </c>
-      <c r="C31" s="30" t="str">
+      <c r="C31" s="32" t="str">
         <f>IF(_CDQ_day_hour!A21="","",_CDQ_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D31" s="30" t="str">
+      <c r="D31" s="32" t="str">
         <f>IF(_CDQ_day_hour!B21="","",_CDQ_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E31" s="30" t="str">
+      <c r="E31" s="33" t="str">
         <f>IF(_CDQ_day_hour!C21="","",_CDQ_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F31" s="30" t="str">
+      <c r="F31" s="33" t="str">
         <f>IF(_CDQ_day_hour!D21="","",_CDQ_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G31" s="30" t="str">
+      <c r="G31" s="33" t="str">
         <f>IF(_CDQ_day_hour!E21="","",_CDQ_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H31" s="30" t="str">
+      <c r="H31" s="33" t="str">
         <f>IF(_CDQ_day_hour!F21="","",_CDQ_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I31" s="30" t="str">
+      <c r="I31" s="33" t="str">
         <f>IF(_CDQ_day_hour!G21="","",_CDQ_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J31" s="30" t="str">
+      <c r="J31" s="33" t="str">
         <f>IF(_CDQ_day_hour!H21="","",_CDQ_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K31" s="30" t="str">
+      <c r="K31" s="33" t="str">
         <f>IF(_CDQ_day_hour!I21="","",_CDQ_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L31" s="30" t="str">
+      <c r="L31" s="33" t="str">
         <f>IF(_CDQ_day_hour!J21="","",_CDQ_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M31" s="30" t="str">
+      <c r="M31" s="33" t="str">
         <f>IF(_CDQ_day_hour!K21="","",_CDQ_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N31" s="30" t="str">
+      <c r="N31" s="32" t="str">
         <f>IF(_CDQ_day_hour!L21="","",_CDQ_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O31" s="30" t="str">
+      <c r="O31" s="32" t="str">
         <f>IF(_CDQ_day_hour!M21="","",_CDQ_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P31" s="30" t="str">
+      <c r="P31" s="33" t="str">
         <f>IF(_CDQ_day_hour!N21="","",_CDQ_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q31" s="30" t="str">
+      <c r="Q31" s="33" t="str">
         <f>IF(_CDQ_day_hour!O21="","",_CDQ_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R31" s="30" t="str">
+      <c r="R31" s="33" t="str">
         <f>IF(_CDQ_day_hour!P21="","",_CDQ_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S31" s="30" t="str">
+      <c r="S31" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q21="","",_CDQ_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T31" s="30" t="str">
+      <c r="T31" s="33" t="str">
         <f>IF(_CDQ_day_hour!R21="","",_CDQ_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U31" s="30" t="str">
+      <c r="U31" s="32" t="str">
         <f>IF(_CDQ_day_hour!S21="","",_CDQ_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="V31" s="28" t="str">
+      <c r="V31" s="32" t="str">
         <f>IF(_CDQ_day_hour!T21="","",_CDQ_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="W31" s="49" t="str">
+      <c r="W31" s="32" t="str">
         <f>IF(_CDQ_day_hour!U21="","",_CDQ_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="X31" s="30" t="str">
+      <c r="X31" s="32" t="str">
         <f>IF(_CDQ_day_hour!V21="","",_CDQ_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="Y31" s="30" t="str">
+      <c r="Y31" s="32" t="str">
         <f>IF(_CDQ_day_hour!W21="","",_CDQ_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Z31" s="30" t="str">
+      <c r="Z31" s="32" t="str">
         <f>IF(_CDQ_day_hour!X21="","",_CDQ_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="AA31" s="30" t="str">
+      <c r="AA31" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y21="","",_CDQ_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AB31" s="30" t="str">
+      <c r="AB31" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z21="","",_CDQ_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AC31" s="30" t="str">
+      <c r="AC31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA21="","",_CDQ_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AD31" s="30" t="str">
+      <c r="AD31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB21="","",_CDQ_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AE31" s="30" t="str">
+      <c r="AE31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC21="","",_CDQ_day_hour!AC21)</f>
         <v/>
       </c>
-      <c r="AF31" s="30" t="str">
+      <c r="AF31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD21="","",_CDQ_day_hour!AD21)</f>
         <v/>
       </c>
-      <c r="AG31" s="30" t="str">
+      <c r="AG31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE21="","",_CDQ_day_hour!AE21)</f>
         <v/>
       </c>
-      <c r="AH31" s="30" t="str">
+      <c r="AH31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF21="","",_CDQ_day_hour!AF21)</f>
         <v/>
       </c>
-      <c r="AI31" s="30" t="str">
+      <c r="AI31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG21="","",_CDQ_day_hour!AG21)</f>
         <v/>
       </c>
-      <c r="AJ31" s="30" t="str">
+      <c r="AJ31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH21="","",_CDQ_day_hour!AH21)</f>
         <v/>
       </c>
-      <c r="AK31" s="30" t="str">
+      <c r="AK31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI21="","",_CDQ_day_hour!AI21)</f>
         <v/>
       </c>
-      <c r="AL31" s="30" t="str">
+      <c r="AL31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ21="","",_CDQ_day_hour!AJ21)</f>
         <v/>
       </c>
-      <c r="AM31" s="30" t="str">
+      <c r="AM31" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK21="","",_CDQ_day_hour!AK21)</f>
         <v/>
       </c>
-      <c r="AN31" s="30" t="str">
+      <c r="AN31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL21="","",_CDQ_day_hour!AL21)</f>
         <v/>
       </c>
-      <c r="AO31" s="30" t="str">
+      <c r="AO31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM21="","",_CDQ_day_hour!AM21)</f>
         <v/>
       </c>
-      <c r="AP31" s="30" t="str">
+      <c r="AP31" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN21="","",_CDQ_day_hour!AN21)</f>
         <v/>
       </c>
-      <c r="AQ31" s="30" t="str">
+      <c r="AQ31" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO21="","",_CDQ_day_hour!AO21)</f>
         <v/>
       </c>
-      <c r="AR31" s="65" t="str">
+      <c r="AR31" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP21="","",_CDQ_day_hour!AP21)</f>
         <v/>
       </c>
@@ -6790,171 +6741,171 @@
       <c r="B32" s="27">
         <v>0.833333333333333</v>
       </c>
-      <c r="C32" s="30" t="str">
+      <c r="C32" s="32" t="str">
         <f>IF(_CDQ_day_hour!A22="","",_CDQ_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D32" s="30" t="str">
+      <c r="D32" s="32" t="str">
         <f>IF(_CDQ_day_hour!B22="","",_CDQ_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E32" s="30" t="str">
+      <c r="E32" s="33" t="str">
         <f>IF(_CDQ_day_hour!C22="","",_CDQ_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F32" s="30" t="str">
+      <c r="F32" s="33" t="str">
         <f>IF(_CDQ_day_hour!D22="","",_CDQ_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G32" s="30" t="str">
+      <c r="G32" s="33" t="str">
         <f>IF(_CDQ_day_hour!E22="","",_CDQ_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H32" s="30" t="str">
+      <c r="H32" s="33" t="str">
         <f>IF(_CDQ_day_hour!F22="","",_CDQ_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I32" s="30" t="str">
+      <c r="I32" s="33" t="str">
         <f>IF(_CDQ_day_hour!G22="","",_CDQ_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J32" s="30" t="str">
+      <c r="J32" s="33" t="str">
         <f>IF(_CDQ_day_hour!H22="","",_CDQ_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K32" s="30" t="str">
+      <c r="K32" s="33" t="str">
         <f>IF(_CDQ_day_hour!I22="","",_CDQ_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L32" s="30" t="str">
+      <c r="L32" s="33" t="str">
         <f>IF(_CDQ_day_hour!J22="","",_CDQ_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M32" s="30" t="str">
+      <c r="M32" s="33" t="str">
         <f>IF(_CDQ_day_hour!K22="","",_CDQ_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N32" s="30" t="str">
+      <c r="N32" s="32" t="str">
         <f>IF(_CDQ_day_hour!L22="","",_CDQ_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O32" s="30" t="str">
+      <c r="O32" s="32" t="str">
         <f>IF(_CDQ_day_hour!M22="","",_CDQ_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P32" s="30" t="str">
+      <c r="P32" s="33" t="str">
         <f>IF(_CDQ_day_hour!N22="","",_CDQ_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q32" s="30" t="str">
+      <c r="Q32" s="33" t="str">
         <f>IF(_CDQ_day_hour!O22="","",_CDQ_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R32" s="30" t="str">
+      <c r="R32" s="33" t="str">
         <f>IF(_CDQ_day_hour!P22="","",_CDQ_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S32" s="30" t="str">
+      <c r="S32" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q22="","",_CDQ_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T32" s="30" t="str">
+      <c r="T32" s="33" t="str">
         <f>IF(_CDQ_day_hour!R22="","",_CDQ_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U32" s="30" t="str">
+      <c r="U32" s="32" t="str">
         <f>IF(_CDQ_day_hour!S22="","",_CDQ_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="V32" s="28" t="str">
+      <c r="V32" s="32" t="str">
         <f>IF(_CDQ_day_hour!T22="","",_CDQ_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="W32" s="49" t="str">
+      <c r="W32" s="32" t="str">
         <f>IF(_CDQ_day_hour!U22="","",_CDQ_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="X32" s="30" t="str">
+      <c r="X32" s="32" t="str">
         <f>IF(_CDQ_day_hour!V22="","",_CDQ_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="Y32" s="30" t="str">
+      <c r="Y32" s="32" t="str">
         <f>IF(_CDQ_day_hour!W22="","",_CDQ_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Z32" s="30" t="str">
+      <c r="Z32" s="32" t="str">
         <f>IF(_CDQ_day_hour!X22="","",_CDQ_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="AA32" s="30" t="str">
+      <c r="AA32" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y22="","",_CDQ_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AB32" s="30" t="str">
+      <c r="AB32" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z22="","",_CDQ_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AC32" s="30" t="str">
+      <c r="AC32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA22="","",_CDQ_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AD32" s="30" t="str">
+      <c r="AD32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB22="","",_CDQ_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AE32" s="30" t="str">
+      <c r="AE32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC22="","",_CDQ_day_hour!AC22)</f>
         <v/>
       </c>
-      <c r="AF32" s="30" t="str">
+      <c r="AF32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD22="","",_CDQ_day_hour!AD22)</f>
         <v/>
       </c>
-      <c r="AG32" s="30" t="str">
+      <c r="AG32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE22="","",_CDQ_day_hour!AE22)</f>
         <v/>
       </c>
-      <c r="AH32" s="30" t="str">
+      <c r="AH32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF22="","",_CDQ_day_hour!AF22)</f>
         <v/>
       </c>
-      <c r="AI32" s="30" t="str">
+      <c r="AI32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG22="","",_CDQ_day_hour!AG22)</f>
         <v/>
       </c>
-      <c r="AJ32" s="30" t="str">
+      <c r="AJ32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH22="","",_CDQ_day_hour!AH22)</f>
         <v/>
       </c>
-      <c r="AK32" s="30" t="str">
+      <c r="AK32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI22="","",_CDQ_day_hour!AI22)</f>
         <v/>
       </c>
-      <c r="AL32" s="30" t="str">
+      <c r="AL32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ22="","",_CDQ_day_hour!AJ22)</f>
         <v/>
       </c>
-      <c r="AM32" s="30" t="str">
+      <c r="AM32" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK22="","",_CDQ_day_hour!AK22)</f>
         <v/>
       </c>
-      <c r="AN32" s="30" t="str">
+      <c r="AN32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL22="","",_CDQ_day_hour!AL22)</f>
         <v/>
       </c>
-      <c r="AO32" s="30" t="str">
+      <c r="AO32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM22="","",_CDQ_day_hour!AM22)</f>
         <v/>
       </c>
-      <c r="AP32" s="30" t="str">
+      <c r="AP32" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN22="","",_CDQ_day_hour!AN22)</f>
         <v/>
       </c>
-      <c r="AQ32" s="30" t="str">
+      <c r="AQ32" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO22="","",_CDQ_day_hour!AO22)</f>
         <v/>
       </c>
-      <c r="AR32" s="65" t="str">
+      <c r="AR32" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP22="","",_CDQ_day_hour!AP22)</f>
         <v/>
       </c>
@@ -6963,171 +6914,171 @@
       <c r="B33" s="27">
         <v>0.875</v>
       </c>
-      <c r="C33" s="30" t="str">
+      <c r="C33" s="32" t="str">
         <f>IF(_CDQ_day_hour!A23="","",_CDQ_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D33" s="30" t="str">
+      <c r="D33" s="32" t="str">
         <f>IF(_CDQ_day_hour!B23="","",_CDQ_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E33" s="30" t="str">
+      <c r="E33" s="33" t="str">
         <f>IF(_CDQ_day_hour!C23="","",_CDQ_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F33" s="30" t="str">
+      <c r="F33" s="33" t="str">
         <f>IF(_CDQ_day_hour!D23="","",_CDQ_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G33" s="30" t="str">
+      <c r="G33" s="33" t="str">
         <f>IF(_CDQ_day_hour!E23="","",_CDQ_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H33" s="30" t="str">
+      <c r="H33" s="33" t="str">
         <f>IF(_CDQ_day_hour!F23="","",_CDQ_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I33" s="30" t="str">
+      <c r="I33" s="33" t="str">
         <f>IF(_CDQ_day_hour!G23="","",_CDQ_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J33" s="30" t="str">
+      <c r="J33" s="33" t="str">
         <f>IF(_CDQ_day_hour!H23="","",_CDQ_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K33" s="30" t="str">
+      <c r="K33" s="33" t="str">
         <f>IF(_CDQ_day_hour!I23="","",_CDQ_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L33" s="30" t="str">
+      <c r="L33" s="33" t="str">
         <f>IF(_CDQ_day_hour!J23="","",_CDQ_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M33" s="30" t="str">
+      <c r="M33" s="33" t="str">
         <f>IF(_CDQ_day_hour!K23="","",_CDQ_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N33" s="30" t="str">
+      <c r="N33" s="32" t="str">
         <f>IF(_CDQ_day_hour!L23="","",_CDQ_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O33" s="30" t="str">
+      <c r="O33" s="32" t="str">
         <f>IF(_CDQ_day_hour!M23="","",_CDQ_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P33" s="30" t="str">
+      <c r="P33" s="33" t="str">
         <f>IF(_CDQ_day_hour!N23="","",_CDQ_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q33" s="30" t="str">
+      <c r="Q33" s="33" t="str">
         <f>IF(_CDQ_day_hour!O23="","",_CDQ_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R33" s="30" t="str">
+      <c r="R33" s="33" t="str">
         <f>IF(_CDQ_day_hour!P23="","",_CDQ_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S33" s="30" t="str">
+      <c r="S33" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q23="","",_CDQ_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T33" s="30" t="str">
+      <c r="T33" s="33" t="str">
         <f>IF(_CDQ_day_hour!R23="","",_CDQ_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U33" s="30" t="str">
+      <c r="U33" s="32" t="str">
         <f>IF(_CDQ_day_hour!S23="","",_CDQ_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="V33" s="28" t="str">
+      <c r="V33" s="32" t="str">
         <f>IF(_CDQ_day_hour!T23="","",_CDQ_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="W33" s="49" t="str">
+      <c r="W33" s="32" t="str">
         <f>IF(_CDQ_day_hour!U23="","",_CDQ_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="X33" s="30" t="str">
+      <c r="X33" s="32" t="str">
         <f>IF(_CDQ_day_hour!V23="","",_CDQ_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="Y33" s="30" t="str">
+      <c r="Y33" s="32" t="str">
         <f>IF(_CDQ_day_hour!W23="","",_CDQ_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Z33" s="30" t="str">
+      <c r="Z33" s="32" t="str">
         <f>IF(_CDQ_day_hour!X23="","",_CDQ_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="AA33" s="30" t="str">
+      <c r="AA33" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y23="","",_CDQ_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AB33" s="30" t="str">
+      <c r="AB33" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z23="","",_CDQ_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AC33" s="30" t="str">
+      <c r="AC33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA23="","",_CDQ_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AD33" s="30" t="str">
+      <c r="AD33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB23="","",_CDQ_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AE33" s="30" t="str">
+      <c r="AE33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC23="","",_CDQ_day_hour!AC23)</f>
         <v/>
       </c>
-      <c r="AF33" s="30" t="str">
+      <c r="AF33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD23="","",_CDQ_day_hour!AD23)</f>
         <v/>
       </c>
-      <c r="AG33" s="30" t="str">
+      <c r="AG33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE23="","",_CDQ_day_hour!AE23)</f>
         <v/>
       </c>
-      <c r="AH33" s="30" t="str">
+      <c r="AH33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF23="","",_CDQ_day_hour!AF23)</f>
         <v/>
       </c>
-      <c r="AI33" s="30" t="str">
+      <c r="AI33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG23="","",_CDQ_day_hour!AG23)</f>
         <v/>
       </c>
-      <c r="AJ33" s="30" t="str">
+      <c r="AJ33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH23="","",_CDQ_day_hour!AH23)</f>
         <v/>
       </c>
-      <c r="AK33" s="30" t="str">
+      <c r="AK33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI23="","",_CDQ_day_hour!AI23)</f>
         <v/>
       </c>
-      <c r="AL33" s="30" t="str">
+      <c r="AL33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ23="","",_CDQ_day_hour!AJ23)</f>
         <v/>
       </c>
-      <c r="AM33" s="30" t="str">
+      <c r="AM33" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK23="","",_CDQ_day_hour!AK23)</f>
         <v/>
       </c>
-      <c r="AN33" s="30" t="str">
+      <c r="AN33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL23="","",_CDQ_day_hour!AL23)</f>
         <v/>
       </c>
-      <c r="AO33" s="30" t="str">
+      <c r="AO33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM23="","",_CDQ_day_hour!AM23)</f>
         <v/>
       </c>
-      <c r="AP33" s="30" t="str">
+      <c r="AP33" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN23="","",_CDQ_day_hour!AN23)</f>
         <v/>
       </c>
-      <c r="AQ33" s="30" t="str">
+      <c r="AQ33" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO23="","",_CDQ_day_hour!AO23)</f>
         <v/>
       </c>
-      <c r="AR33" s="65" t="str">
+      <c r="AR33" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP23="","",_CDQ_day_hour!AP23)</f>
         <v/>
       </c>
@@ -7136,1101 +7087,1101 @@
       <c r="B34" s="27">
         <v>0.916666666666667</v>
       </c>
-      <c r="C34" s="30" t="str">
+      <c r="C34" s="32" t="str">
         <f>IF(_CDQ_day_hour!A24="","",_CDQ_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D34" s="30" t="str">
+      <c r="D34" s="32" t="str">
         <f>IF(_CDQ_day_hour!B24="","",_CDQ_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E34" s="30" t="str">
+      <c r="E34" s="33" t="str">
         <f>IF(_CDQ_day_hour!C24="","",_CDQ_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F34" s="30" t="str">
+      <c r="F34" s="33" t="str">
         <f>IF(_CDQ_day_hour!D24="","",_CDQ_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G34" s="30" t="str">
+      <c r="G34" s="33" t="str">
         <f>IF(_CDQ_day_hour!E24="","",_CDQ_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H34" s="30" t="str">
+      <c r="H34" s="33" t="str">
         <f>IF(_CDQ_day_hour!F24="","",_CDQ_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I34" s="30" t="str">
+      <c r="I34" s="33" t="str">
         <f>IF(_CDQ_day_hour!G24="","",_CDQ_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J34" s="30" t="str">
+      <c r="J34" s="33" t="str">
         <f>IF(_CDQ_day_hour!H24="","",_CDQ_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K34" s="30" t="str">
+      <c r="K34" s="33" t="str">
         <f>IF(_CDQ_day_hour!I24="","",_CDQ_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L34" s="30" t="str">
+      <c r="L34" s="33" t="str">
         <f>IF(_CDQ_day_hour!J24="","",_CDQ_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M34" s="30" t="str">
+      <c r="M34" s="33" t="str">
         <f>IF(_CDQ_day_hour!K24="","",_CDQ_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N34" s="30" t="str">
+      <c r="N34" s="32" t="str">
         <f>IF(_CDQ_day_hour!L24="","",_CDQ_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O34" s="30" t="str">
+      <c r="O34" s="32" t="str">
         <f>IF(_CDQ_day_hour!M24="","",_CDQ_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P34" s="30" t="str">
+      <c r="P34" s="33" t="str">
         <f>IF(_CDQ_day_hour!N24="","",_CDQ_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q34" s="30" t="str">
+      <c r="Q34" s="33" t="str">
         <f>IF(_CDQ_day_hour!O24="","",_CDQ_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R34" s="30" t="str">
+      <c r="R34" s="33" t="str">
         <f>IF(_CDQ_day_hour!P24="","",_CDQ_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S34" s="30" t="str">
+      <c r="S34" s="33" t="str">
         <f>IF(_CDQ_day_hour!Q24="","",_CDQ_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T34" s="30" t="str">
+      <c r="T34" s="33" t="str">
         <f>IF(_CDQ_day_hour!R24="","",_CDQ_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U34" s="30" t="str">
+      <c r="U34" s="32" t="str">
         <f>IF(_CDQ_day_hour!S24="","",_CDQ_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="V34" s="28" t="str">
+      <c r="V34" s="32" t="str">
         <f>IF(_CDQ_day_hour!T24="","",_CDQ_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="W34" s="49" t="str">
+      <c r="W34" s="32" t="str">
         <f>IF(_CDQ_day_hour!U24="","",_CDQ_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="X34" s="30" t="str">
+      <c r="X34" s="32" t="str">
         <f>IF(_CDQ_day_hour!V24="","",_CDQ_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="Y34" s="30" t="str">
+      <c r="Y34" s="32" t="str">
         <f>IF(_CDQ_day_hour!W24="","",_CDQ_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Z34" s="30" t="str">
+      <c r="Z34" s="32" t="str">
         <f>IF(_CDQ_day_hour!X24="","",_CDQ_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="AA34" s="30" t="str">
+      <c r="AA34" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y24="","",_CDQ_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AB34" s="30" t="str">
+      <c r="AB34" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z24="","",_CDQ_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AC34" s="30" t="str">
+      <c r="AC34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AA24="","",_CDQ_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AD34" s="30" t="str">
+      <c r="AD34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AB24="","",_CDQ_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AE34" s="30" t="str">
+      <c r="AE34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AC24="","",_CDQ_day_hour!AC24)</f>
         <v/>
       </c>
-      <c r="AF34" s="30" t="str">
+      <c r="AF34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AD24="","",_CDQ_day_hour!AD24)</f>
         <v/>
       </c>
-      <c r="AG34" s="30" t="str">
+      <c r="AG34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AE24="","",_CDQ_day_hour!AE24)</f>
         <v/>
       </c>
-      <c r="AH34" s="30" t="str">
+      <c r="AH34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AF24="","",_CDQ_day_hour!AF24)</f>
         <v/>
       </c>
-      <c r="AI34" s="30" t="str">
+      <c r="AI34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG24="","",_CDQ_day_hour!AG24)</f>
         <v/>
       </c>
-      <c r="AJ34" s="30" t="str">
+      <c r="AJ34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH24="","",_CDQ_day_hour!AH24)</f>
         <v/>
       </c>
-      <c r="AK34" s="30" t="str">
+      <c r="AK34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI24="","",_CDQ_day_hour!AI24)</f>
         <v/>
       </c>
-      <c r="AL34" s="30" t="str">
+      <c r="AL34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ24="","",_CDQ_day_hour!AJ24)</f>
         <v/>
       </c>
-      <c r="AM34" s="30" t="str">
+      <c r="AM34" s="33" t="str">
         <f>IF(_CDQ_day_hour!AK24="","",_CDQ_day_hour!AK24)</f>
         <v/>
       </c>
-      <c r="AN34" s="30" t="str">
+      <c r="AN34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL24="","",_CDQ_day_hour!AL24)</f>
         <v/>
       </c>
-      <c r="AO34" s="30" t="str">
+      <c r="AO34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM24="","",_CDQ_day_hour!AM24)</f>
         <v/>
       </c>
-      <c r="AP34" s="30" t="str">
+      <c r="AP34" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN24="","",_CDQ_day_hour!AN24)</f>
         <v/>
       </c>
-      <c r="AQ34" s="30" t="str">
+      <c r="AQ34" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO24="","",_CDQ_day_hour!AO24)</f>
         <v/>
       </c>
-      <c r="AR34" s="65" t="str">
+      <c r="AR34" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP24="","",_CDQ_day_hour!AP24)</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="25.05" customHeight="1" spans="2:44">
-      <c r="B35" s="32">
+      <c r="B35" s="35">
         <v>0.958333333333333</v>
       </c>
-      <c r="C35" s="33" t="str">
+      <c r="C35" s="36" t="str">
         <f>IF(_CDQ_day_hour!A25="","",_CDQ_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D35" s="33" t="str">
+      <c r="D35" s="36" t="str">
         <f>IF(_CDQ_day_hour!B25="","",_CDQ_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E35" s="33" t="str">
+      <c r="E35" s="37" t="str">
         <f>IF(_CDQ_day_hour!C25="","",_CDQ_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F35" s="33" t="str">
+      <c r="F35" s="37" t="str">
         <f>IF(_CDQ_day_hour!D25="","",_CDQ_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G35" s="33" t="str">
+      <c r="G35" s="37" t="str">
         <f>IF(_CDQ_day_hour!E25="","",_CDQ_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H35" s="33" t="str">
+      <c r="H35" s="37" t="str">
         <f>IF(_CDQ_day_hour!F25="","",_CDQ_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I35" s="33" t="str">
+      <c r="I35" s="37" t="str">
         <f>IF(_CDQ_day_hour!G25="","",_CDQ_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J35" s="33" t="str">
+      <c r="J35" s="37" t="str">
         <f>IF(_CDQ_day_hour!H25="","",_CDQ_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K35" s="33" t="str">
+      <c r="K35" s="37" t="str">
         <f>IF(_CDQ_day_hour!I25="","",_CDQ_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L35" s="33" t="str">
+      <c r="L35" s="37" t="str">
         <f>IF(_CDQ_day_hour!J25="","",_CDQ_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M35" s="33" t="str">
+      <c r="M35" s="37" t="str">
         <f>IF(_CDQ_day_hour!K25="","",_CDQ_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N35" s="33" t="str">
+      <c r="N35" s="36" t="str">
         <f>IF(_CDQ_day_hour!L25="","",_CDQ_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O35" s="33" t="str">
+      <c r="O35" s="36" t="str">
         <f>IF(_CDQ_day_hour!M25="","",_CDQ_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P35" s="33" t="str">
+      <c r="P35" s="37" t="str">
         <f>IF(_CDQ_day_hour!N25="","",_CDQ_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q35" s="33" t="str">
+      <c r="Q35" s="37" t="str">
         <f>IF(_CDQ_day_hour!O25="","",_CDQ_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R35" s="33" t="str">
+      <c r="R35" s="37" t="str">
         <f>IF(_CDQ_day_hour!P25="","",_CDQ_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S35" s="33" t="str">
+      <c r="S35" s="37" t="str">
         <f>IF(_CDQ_day_hour!Q25="","",_CDQ_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T35" s="33" t="str">
+      <c r="T35" s="37" t="str">
         <f>IF(_CDQ_day_hour!R25="","",_CDQ_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U35" s="33" t="str">
+      <c r="U35" s="36" t="str">
         <f>IF(_CDQ_day_hour!S25="","",_CDQ_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="V35" s="28" t="str">
+      <c r="V35" s="36" t="str">
         <f>IF(_CDQ_day_hour!T25="","",_CDQ_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="W35" s="50" t="str">
+      <c r="W35" s="36" t="str">
         <f>IF(_CDQ_day_hour!U25="","",_CDQ_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="X35" s="30" t="str">
+      <c r="X35" s="36" t="str">
         <f>IF(_CDQ_day_hour!V25="","",_CDQ_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="Y35" s="30" t="str">
+      <c r="Y35" s="32" t="str">
         <f>IF(_CDQ_day_hour!W25="","",_CDQ_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Z35" s="30" t="str">
+      <c r="Z35" s="32" t="str">
         <f>IF(_CDQ_day_hour!X25="","",_CDQ_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="AA35" s="30" t="str">
+      <c r="AA35" s="32" t="str">
         <f>IF(_CDQ_day_hour!Y25="","",_CDQ_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AB35" s="30" t="str">
+      <c r="AB35" s="32" t="str">
         <f>IF(_CDQ_day_hour!Z25="","",_CDQ_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AC35" s="30" t="str">
+      <c r="AC35" s="36" t="str">
         <f>IF(_CDQ_day_hour!AA25="","",_CDQ_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AD35" s="30" t="str">
+      <c r="AD35" s="36" t="str">
         <f>IF(_CDQ_day_hour!AB25="","",_CDQ_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AE35" s="30" t="str">
+      <c r="AE35" s="36" t="str">
         <f>IF(_CDQ_day_hour!AC25="","",_CDQ_day_hour!AC25)</f>
         <v/>
       </c>
-      <c r="AF35" s="30" t="str">
+      <c r="AF35" s="36" t="str">
         <f>IF(_CDQ_day_hour!AD25="","",_CDQ_day_hour!AD25)</f>
         <v/>
       </c>
-      <c r="AG35" s="30" t="str">
+      <c r="AG35" s="36" t="str">
         <f>IF(_CDQ_day_hour!AE25="","",_CDQ_day_hour!AE25)</f>
         <v/>
       </c>
-      <c r="AH35" s="30" t="str">
+      <c r="AH35" s="36" t="str">
         <f>IF(_CDQ_day_hour!AF25="","",_CDQ_day_hour!AF25)</f>
         <v/>
       </c>
-      <c r="AI35" s="30" t="str">
+      <c r="AI35" s="32" t="str">
         <f>IF(_CDQ_day_hour!AG25="","",_CDQ_day_hour!AG25)</f>
         <v/>
       </c>
-      <c r="AJ35" s="30" t="str">
+      <c r="AJ35" s="32" t="str">
         <f>IF(_CDQ_day_hour!AH25="","",_CDQ_day_hour!AH25)</f>
         <v/>
       </c>
-      <c r="AK35" s="30" t="str">
+      <c r="AK35" s="32" t="str">
         <f>IF(_CDQ_day_hour!AI25="","",_CDQ_day_hour!AI25)</f>
         <v/>
       </c>
-      <c r="AL35" s="30" t="str">
+      <c r="AL35" s="32" t="str">
         <f>IF(_CDQ_day_hour!AJ25="","",_CDQ_day_hour!AJ25)</f>
         <v/>
       </c>
-      <c r="AM35" s="30" t="str">
+      <c r="AM35" s="37" t="str">
         <f>IF(_CDQ_day_hour!AK25="","",_CDQ_day_hour!AK25)</f>
         <v/>
       </c>
-      <c r="AN35" s="30" t="str">
+      <c r="AN35" s="32" t="str">
         <f>IF(_CDQ_day_hour!AL25="","",_CDQ_day_hour!AL25)</f>
         <v/>
       </c>
-      <c r="AO35" s="30" t="str">
+      <c r="AO35" s="32" t="str">
         <f>IF(_CDQ_day_hour!AM25="","",_CDQ_day_hour!AM25)</f>
         <v/>
       </c>
-      <c r="AP35" s="30" t="str">
+      <c r="AP35" s="33" t="str">
         <f>IF(_CDQ_day_hour!AN25="","",_CDQ_day_hour!AN25)</f>
         <v/>
       </c>
-      <c r="AQ35" s="30" t="str">
+      <c r="AQ35" s="32" t="str">
         <f>IF(_CDQ_day_hour!AO25="","",_CDQ_day_hour!AO25)</f>
         <v/>
       </c>
-      <c r="AR35" s="65" t="str">
+      <c r="AR35" s="67" t="str">
         <f>IF(_CDQ_day_hour!AP25="","",_CDQ_day_hour!AP25)</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="25.05" customHeight="1" spans="2:44">
-      <c r="B36" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="30" t="str">
+      <c r="B36" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="32" t="str">
         <f t="shared" ref="C36:AH36" si="0">IF(C12="","",AVERAGE(C12:C19))</f>
         <v/>
       </c>
-      <c r="D36" s="30" t="str">
+      <c r="D36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E36" s="30" t="str">
+      <c r="E36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F36" s="30" t="str">
+      <c r="F36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="30" t="str">
+      <c r="G36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="30" t="str">
+      <c r="H36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I36" s="30" t="str">
+      <c r="I36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="30" t="str">
+      <c r="J36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K36" s="30" t="str">
+      <c r="K36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="30" t="str">
+      <c r="L36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="30" t="str">
+      <c r="M36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N36" s="30" t="str">
+      <c r="N36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O36" s="30" t="str">
+      <c r="O36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P36" s="30" t="str">
+      <c r="P36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q36" s="30" t="str">
+      <c r="Q36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R36" s="30" t="str">
+      <c r="R36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S36" s="30" t="str">
+      <c r="S36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T36" s="30" t="str">
+      <c r="T36" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U36" s="30" t="str">
+      <c r="U36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V36" s="30" t="str">
-        <f t="shared" ref="V36" si="1">IF(V12="","",AVERAGE(V12:V19))</f>
-        <v/>
-      </c>
-      <c r="W36" s="30" t="str">
+      <c r="V36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X36" s="30" t="str">
+      <c r="W36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y36" s="30" t="str">
+      <c r="X36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z36" s="30" t="str">
+      <c r="Y36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA36" s="30" t="str">
+      <c r="Z36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB36" s="30" t="str">
+      <c r="AA36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC36" s="30" t="str">
+      <c r="AB36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD36" s="30" t="str">
+      <c r="AC36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE36" s="30" t="str">
+      <c r="AD36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF36" s="30" t="str">
+      <c r="AE36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG36" s="30" t="str">
+      <c r="AF36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH36" s="30" t="str">
+      <c r="AG36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30" t="str">
-        <f t="shared" ref="AK36:AR36" si="2">IF(AK12="","",AVERAGE(AK12:AK19))</f>
-        <v/>
-      </c>
-      <c r="AL36" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AM36" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AN36" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AO36" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AP36" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AQ36" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AR36" s="65" t="str">
-        <f t="shared" si="2"/>
+      <c r="AH36" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32" t="str">
+        <f t="shared" ref="AK36:AR36" si="1">IF(AK12="","",AVERAGE(AK12:AK19))</f>
+        <v/>
+      </c>
+      <c r="AL36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AM36" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AN36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AO36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AP36" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AQ36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AR36" s="67" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" ht="25.05" customHeight="1" spans="2:44">
-      <c r="B37" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="30" t="str">
-        <f t="shared" ref="C37:AH37" si="3">IF(C20="","",AVERAGE(C20:C27))</f>
-        <v/>
-      </c>
-      <c r="D37" s="30" t="str">
+      <c r="B37" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="32" t="str">
+        <f t="shared" ref="C37:AH37" si="2">IF(C20="","",AVERAGE(C20:C27))</f>
+        <v/>
+      </c>
+      <c r="D37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T37" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH37" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="32" t="str">
+        <f t="shared" ref="AK37:AR37" si="3">IF(AK20="","",AVERAGE(AK20:AK27))</f>
+        <v/>
+      </c>
+      <c r="AL37" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E37" s="30" t="str">
+      <c r="AM37" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F37" s="30" t="str">
+      <c r="AN37" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G37" s="30" t="str">
+      <c r="AO37" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H37" s="30" t="str">
+      <c r="AP37" s="33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I37" s="30" t="str">
+      <c r="AQ37" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J37" s="30" t="str">
+      <c r="AR37" s="67" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V37" s="30" t="str">
-        <f t="shared" ref="V37" si="4">IF(V20="","",AVERAGE(V20:V27))</f>
-        <v/>
-      </c>
-      <c r="W37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AD37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AE37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AF37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AH37" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30" t="str">
-        <f t="shared" ref="AK37:AR37" si="5">IF(AK20="","",AVERAGE(AK20:AK27))</f>
-        <v/>
-      </c>
-      <c r="AL37" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AM37" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AN37" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AO37" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AP37" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AQ37" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AR37" s="65" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="38" ht="25.05" customHeight="1" spans="2:44">
-      <c r="B38" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="30" t="str">
-        <f t="shared" ref="C38:AH38" si="6">IF(C28="","",AVERAGE(C28:C35))</f>
-        <v/>
-      </c>
-      <c r="D38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="S38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="U38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="V38" s="30" t="str">
-        <f t="shared" ref="V38" si="7">IF(V28="","",AVERAGE(V28:V35))</f>
-        <v/>
-      </c>
-      <c r="W38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Y38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Z38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AA38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AB38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AD38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AE38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AF38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AG38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AH38" s="30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AI38" s="30"/>
-      <c r="AJ38" s="30"/>
-      <c r="AK38" s="30" t="str">
-        <f t="shared" ref="AK38:AR38" si="8">IF(AK28="","",AVERAGE(AK28:AK35))</f>
-        <v/>
-      </c>
-      <c r="AL38" s="30" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM38" s="30" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AN38" s="30" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AO38" s="30" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AP38" s="30" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AQ38" s="30" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AR38" s="65" t="str">
-        <f t="shared" si="8"/>
+      <c r="B38" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="32" t="str">
+        <f t="shared" ref="C38:AH38" si="4">IF(C28="","",AVERAGE(C28:C35))</f>
+        <v/>
+      </c>
+      <c r="D38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="T38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AG38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AH38" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="32"/>
+      <c r="AK38" s="32" t="str">
+        <f t="shared" ref="AK38:AR38" si="5">IF(AK28="","",AVERAGE(AK28:AK35))</f>
+        <v/>
+      </c>
+      <c r="AL38" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AM38" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AN38" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AO38" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AP38" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AQ38" s="32" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AR38" s="67" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="39" ht="25.05" customHeight="1" spans="2:44">
-      <c r="B39" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="33" t="str">
-        <f t="shared" ref="C39:AH39" si="9">IF(C12="","",AVERAGE(C12:C35))</f>
-        <v/>
-      </c>
-      <c r="D39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="K39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="S39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="U39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="V39" s="33" t="str">
-        <f t="shared" ref="V39" si="10">IF(V12="","",AVERAGE(V12:V35))</f>
-        <v/>
-      </c>
-      <c r="W39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="X39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Z39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AA39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AB39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AD39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AE39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AF39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AG39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AH39" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="33"/>
-      <c r="AK39" s="33" t="str">
-        <f t="shared" ref="AK39:AR39" si="11">IF(AK12="","",AVERAGE(AK12:AK35))</f>
-        <v/>
-      </c>
-      <c r="AL39" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AM39" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AN39" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AO39" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AP39" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AQ39" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AR39" s="66" t="str">
-        <f t="shared" si="11"/>
+      <c r="B39" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="36" t="str">
+        <f t="shared" ref="C39:AH39" si="6">IF(C12="","",AVERAGE(C12:C35))</f>
+        <v/>
+      </c>
+      <c r="D39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T39" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH39" s="36" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36" t="str">
+        <f t="shared" ref="AK39:AR39" si="7">IF(AK12="","",AVERAGE(AK12:AK35))</f>
+        <v/>
+      </c>
+      <c r="AL39" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AM39" s="37" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN39" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AO39" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AP39" s="37" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AQ39" s="36" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AR39" s="68" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="40" ht="119.55" customHeight="1" spans="2:44">
-      <c r="B40" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
-      <c r="AK40" s="37"/>
-      <c r="AL40" s="37"/>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="37"/>
-      <c r="AO40" s="37"/>
-      <c r="AP40" s="37"/>
-      <c r="AQ40" s="37"/>
-      <c r="AR40" s="40"/>
+      <c r="B40" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="41"/>
+      <c r="AK40" s="41"/>
+      <c r="AL40" s="41"/>
+      <c r="AM40" s="41"/>
+      <c r="AN40" s="41"/>
+      <c r="AO40" s="41"/>
+      <c r="AP40" s="41"/>
+      <c r="AQ40" s="41"/>
+      <c r="AR40" s="44"/>
     </row>
     <row r="41" ht="19.5" spans="2:44">
-      <c r="B41" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="41"/>
+      <c r="B41" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="45"/>
       <c r="AC41" s="51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AD41" s="52"/>
       <c r="AE41" s="52"/>
@@ -8241,12 +8192,12 @@
       <c r="AJ41" s="52"/>
       <c r="AK41" s="52"/>
       <c r="AL41" s="52"/>
-      <c r="AM41" s="52"/>
+      <c r="AM41" s="59"/>
       <c r="AN41" s="52"/>
       <c r="AO41" s="52"/>
       <c r="AP41" s="52"/>
       <c r="AQ41" s="52"/>
-      <c r="AR41" s="67"/>
+      <c r="AR41" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -8306,331 +8257,339 @@
     <mergeCell ref="N4:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:C39">
-    <cfRule type="cellIs" dxfId="0" priority="3121" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>5.6</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3178" stopIfTrue="1" operator="lessThan">
+      <formula>C$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3122" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="3177" stopIfTrue="1" operator="greaterThan">
+      <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D39">
-    <cfRule type="cellIs" dxfId="0" priority="3123" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>5.6</formula>
+    <cfRule type="cellIs" dxfId="0" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>D$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3124" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="55" stopIfTrue="1" operator="greaterThan">
+      <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E39">
-    <cfRule type="cellIs" dxfId="0" priority="3125" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>85</formula>
+    <cfRule type="cellIs" dxfId="0" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>E$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3126" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="53" stopIfTrue="1" operator="greaterThan">
+      <formula>E$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F39">
-    <cfRule type="cellIs" dxfId="0" priority="3127" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>85</formula>
+    <cfRule type="cellIs" dxfId="0" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>F$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3128" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="51" stopIfTrue="1" operator="greaterThan">
+      <formula>F$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G39">
-    <cfRule type="cellIs" dxfId="0" priority="3129" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>135</formula>
+    <cfRule type="cellIs" dxfId="0" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>G$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3130" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="49" stopIfTrue="1" operator="greaterThan">
+      <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H39">
-    <cfRule type="cellIs" dxfId="0" priority="3131" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>135</formula>
+    <cfRule type="cellIs" dxfId="0" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>H$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3132" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="47" stopIfTrue="1" operator="greaterThan">
+      <formula>H$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I39">
-    <cfRule type="cellIs" dxfId="0" priority="3133" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>135</formula>
+    <cfRule type="cellIs" dxfId="0" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>I$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3134" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="45" stopIfTrue="1" operator="greaterThan">
+      <formula>I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J39">
-    <cfRule type="cellIs" dxfId="0" priority="3135" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>115</formula>
+    <cfRule type="cellIs" dxfId="0" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>J$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3136" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="43" stopIfTrue="1" operator="greaterThan">
+      <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:K39">
-    <cfRule type="cellIs" dxfId="0" priority="3137" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>115</formula>
+    <cfRule type="cellIs" dxfId="0" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>K$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3138" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="41" stopIfTrue="1" operator="greaterThan">
+      <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L39">
-    <cfRule type="cellIs" dxfId="0" priority="3139" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>1495</formula>
+    <cfRule type="cellIs" dxfId="0" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>L$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3140" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="39" stopIfTrue="1" operator="greaterThan">
+      <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M39">
-    <cfRule type="cellIs" dxfId="0" priority="3141" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>95</formula>
+    <cfRule type="cellIs" dxfId="0" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>M$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3142" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="37" stopIfTrue="1" operator="greaterThan">
+      <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N39">
-    <cfRule type="cellIs" dxfId="0" priority="3143" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>N$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3144" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>1.5</formula>
+    <cfRule type="cellIs" dxfId="1" priority="35" stopIfTrue="1" operator="greaterThan">
+      <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:O39">
-    <cfRule type="cellIs" dxfId="0" priority="3145" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>O$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3146" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>1.5</formula>
+    <cfRule type="cellIs" dxfId="1" priority="33" stopIfTrue="1" operator="greaterThan">
+      <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P39">
-    <cfRule type="cellIs" dxfId="0" priority="3147" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>95</formula>
+    <cfRule type="cellIs" dxfId="0" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>P$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3148" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="31" stopIfTrue="1" operator="greaterThan">
+      <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q39">
-    <cfRule type="cellIs" dxfId="0" priority="3149" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>75</formula>
+    <cfRule type="cellIs" dxfId="0" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>Q$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3150" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="29" stopIfTrue="1" operator="greaterThan">
+      <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:R39">
-    <cfRule type="cellIs" dxfId="0" priority="3151" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>75</formula>
+    <cfRule type="cellIs" dxfId="0" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>R$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3152" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="27" stopIfTrue="1" operator="greaterThan">
+      <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S39">
-    <cfRule type="cellIs" dxfId="0" priority="3153" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>200</formula>
+    <cfRule type="cellIs" dxfId="0" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>S$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3154" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="greaterThan">
+      <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T39">
-    <cfRule type="cellIs" dxfId="0" priority="3155" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>200</formula>
+    <cfRule type="cellIs" dxfId="0" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>T$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3156" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="greaterThan">
+      <formula>T$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12:U39">
+    <cfRule type="cellIs" dxfId="0" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>U$9+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="21" stopIfTrue="1" operator="greaterThan">
+      <formula>U$8+0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12:V39">
+    <cfRule type="cellIs" dxfId="0" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>V$9+0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="19" stopIfTrue="1" operator="greaterThan">
+      <formula>V$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W39">
-    <cfRule type="cellIs" dxfId="0" priority="3159" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="0" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>W$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3160" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="17" stopIfTrue="1" operator="greaterThan">
+      <formula>W$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X39">
-    <cfRule type="cellIs" dxfId="0" priority="3161" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>X$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3162" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="15" stopIfTrue="1" operator="greaterThan">
+      <formula>X$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y39">
-    <cfRule type="cellIs" dxfId="0" priority="3163" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3220" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3219" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3164" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12:Z39">
-    <cfRule type="cellIs" dxfId="0" priority="3165" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3222" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3221" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3166" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA39">
-    <cfRule type="cellIs" dxfId="0" priority="3167" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3224" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3223" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3168" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12:AB39">
-    <cfRule type="cellIs" dxfId="0" priority="3169" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3226" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3225" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3170" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC39">
-    <cfRule type="cellIs" dxfId="0" priority="3171" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>95</formula>
+    <cfRule type="cellIs" dxfId="0" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>AC$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3172" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="13" stopIfTrue="1" operator="greaterThan">
+      <formula>AC$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12:AD39">
-    <cfRule type="cellIs" dxfId="0" priority="3173" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>AD$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3174" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>AD$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AE39">
-    <cfRule type="cellIs" dxfId="0" priority="3175" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>8</formula>
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>AE$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3176" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="greaterThan">
+      <formula>AE$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AF39">
-    <cfRule type="cellIs" dxfId="0" priority="3177" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>3</formula>
+    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>AF$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3178" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>AF$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AG39">
-    <cfRule type="cellIs" dxfId="0" priority="3179" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>AG$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3180" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="greaterThan">
+      <formula>AG$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AH39">
-    <cfRule type="cellIs" dxfId="0" priority="3181" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>16</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>AH$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3182" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>AH$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI12:AI39">
-    <cfRule type="cellIs" dxfId="0" priority="3183" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3240" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3239" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3184" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ39">
-    <cfRule type="cellIs" dxfId="0" priority="3185" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3242" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3241" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3186" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AK39">
-    <cfRule type="cellIs" dxfId="0" priority="3187" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3244" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3243" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3188" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL12:AL39">
-    <cfRule type="cellIs" dxfId="0" priority="3189" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3246" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3245" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3190" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM12:AM39">
-    <cfRule type="cellIs" dxfId="0" priority="3191" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>999999999999</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>AM$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3192" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>0.4</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>AM$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN12:AN39">
-    <cfRule type="cellIs" dxfId="0" priority="3193" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3250" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3249" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3194" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO12:AO39">
-    <cfRule type="cellIs" dxfId="0" priority="3195" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3252" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3251" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3196" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12:AP39">
-    <cfRule type="cellIs" dxfId="0" priority="3197" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3254" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3253" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3198" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12:AQ39">
-    <cfRule type="cellIs" dxfId="0" priority="3199" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3256" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>-999999999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3255" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3200" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>-999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR12:AR39">
-    <cfRule type="cellIs" dxfId="0" priority="3201" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>999999999999</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3202" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3258" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>-999999999999</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:V39">
-    <cfRule type="cellIs" dxfId="0" priority="3157" stopIfTrue="1" operator="greaterThanOrEqual">
-      <formula>6.4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3158" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>6.1</formula>
+    <cfRule type="cellIs" dxfId="1" priority="3257" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>999999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1"/>
@@ -8644,7 +8603,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:AP1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AP1"/>
@@ -8657,783 +8616,123 @@
   <sheetData>
     <row r="1" ht="57" spans="1:42">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AP1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AM1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-    </row>
-    <row r="3" spans="1:42">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3"/>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
-      <c r="AP4"/>
-    </row>
-    <row r="5" spans="1:42">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5"/>
-      <c r="AP5"/>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-    </row>
-    <row r="8" spans="1:42">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-    </row>
-    <row r="11" spans="1:42">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
-      <c r="AK12"/>
-      <c r="AL12"/>
-      <c r="AM12"/>
-      <c r="AN12"/>
-      <c r="AO12"/>
-      <c r="AP12"/>
-    </row>
-    <row r="13" spans="1:42">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-    </row>
-    <row r="14" spans="1:42">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
-      <c r="AK14"/>
-      <c r="AL14"/>
-      <c r="AM14"/>
-      <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14"/>
-    </row>
-    <row r="15" spans="1:42">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15"/>
-      <c r="AK15"/>
-      <c r="AL15"/>
-      <c r="AM15"/>
-      <c r="AN15"/>
-      <c r="AO15"/>
-      <c r="AP15"/>
-    </row>
-    <row r="16" spans="1:42">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
-      <c r="AL16"/>
-      <c r="AM16"/>
-      <c r="AN16"/>
-      <c r="AO16"/>
-      <c r="AP16"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -9474,7 +8773,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1">
         <v>45</v>
@@ -9482,6 +8781,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化45/CK45-CDQ操作运行报表B（日）.xlsx
+++ b/excel/finished/焦化45/CK45-CDQ操作运行报表B（日）.xlsx
@@ -110,7 +110,7 @@
         <rFont val="宋体"/>
         <sz val="22"/>
       </rPr>
-      <t xml:space="preserve">  t/h（1#CQD）干  熄  焦  操  作  运  行  记  录 (B)</t>
+      <t xml:space="preserve">  t/h（1#CDQ）干  熄  焦  操  作  运  行  记  录 (B)</t>
     </r>
   </si>
   <si>
